--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>['20', '49']</t>
+  </si>
+  <si>
+    <t>['17', '84', '90+3']</t>
   </si>
   <si>
     <t>['30', '78', '90+4']</t>
@@ -1215,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1477,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1552,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ2">
         <v>1.19</v>
@@ -2092,7 +2095,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>4.4</v>
@@ -2298,7 +2301,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2916,7 +2919,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>2.97</v>
@@ -3203,7 +3206,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3534,7 +3537,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.15</v>
@@ -3740,7 +3743,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>2.66</v>
@@ -3821,7 +3824,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ13">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -4358,7 +4361,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4564,7 +4567,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>3.2</v>
@@ -4770,7 +4773,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4848,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
@@ -4976,7 +4979,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5182,7 +5185,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>5.8</v>
@@ -5388,7 +5391,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>4.05</v>
@@ -5594,7 +5597,7 @@
         <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -6006,7 +6009,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6212,7 +6215,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6418,7 +6421,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>3.25</v>
@@ -6705,7 +6708,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ27">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR27">
         <v>1.25</v>
@@ -6830,7 +6833,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>2.99</v>
@@ -7036,7 +7039,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7448,7 +7451,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>3.88</v>
@@ -7526,7 +7529,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ31">
         <v>2.06</v>
@@ -7654,7 +7657,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7860,7 +7863,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -7938,7 +7941,7 @@
         <v>1.33</v>
       </c>
       <c r="AP33">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ33">
         <v>1.13</v>
@@ -8066,7 +8069,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8272,7 +8275,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8478,7 +8481,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>3.6</v>
@@ -8684,7 +8687,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>2.05</v>
@@ -8765,7 +8768,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ37">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>1.55</v>
@@ -8890,7 +8893,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>4.18</v>
@@ -9096,7 +9099,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9508,7 +9511,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9920,7 +9923,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>1.68</v>
@@ -10001,7 +10004,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ43">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR43">
         <v>1.84</v>
@@ -10126,7 +10129,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10332,7 +10335,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>1.72</v>
@@ -10744,7 +10747,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10950,7 +10953,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11028,7 +11031,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ48">
         <v>2.31</v>
@@ -11156,7 +11159,7 @@
         <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -12392,7 +12395,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>1.9</v>
@@ -12598,7 +12601,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12679,7 +12682,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ56">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR56">
         <v>1.59</v>
@@ -12804,7 +12807,7 @@
         <v>83</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13010,7 +13013,7 @@
         <v>83</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13216,7 +13219,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13422,7 +13425,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13628,7 +13631,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -13706,7 +13709,7 @@
         <v>2.2</v>
       </c>
       <c r="AP61">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ61">
         <v>1.29</v>
@@ -13834,7 +13837,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -14246,7 +14249,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>1.83</v>
@@ -14452,7 +14455,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>3.3</v>
@@ -14739,7 +14742,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14864,7 +14867,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>4.41</v>
@@ -15148,10 +15151,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ68">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR68">
         <v>1.19</v>
@@ -15276,7 +15279,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>3.88</v>
@@ -15482,7 +15485,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>2.55</v>
@@ -15894,7 +15897,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>3.24</v>
@@ -16100,7 +16103,7 @@
         <v>116</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>2.48</v>
@@ -16306,7 +16309,7 @@
         <v>83</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2.24</v>
@@ -16512,7 +16515,7 @@
         <v>83</v>
       </c>
       <c r="P75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>2.95</v>
@@ -16924,7 +16927,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>4.17</v>
@@ -17130,7 +17133,7 @@
         <v>83</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>4.92</v>
@@ -17336,7 +17339,7 @@
         <v>83</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17620,7 +17623,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ80">
         <v>1.35</v>
@@ -17748,7 +17751,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>3.64</v>
@@ -18366,7 +18369,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>2.83</v>
@@ -18572,7 +18575,7 @@
         <v>83</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>4.6</v>
@@ -18778,7 +18781,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18984,7 +18987,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19268,7 +19271,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19396,7 +19399,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19602,7 +19605,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19808,7 +19811,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20014,7 +20017,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20298,7 +20301,7 @@
         <v>1.44</v>
       </c>
       <c r="AP93">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ93">
         <v>1.19</v>
@@ -20426,7 +20429,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20632,7 +20635,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>2.96</v>
@@ -20713,7 +20716,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR95">
         <v>1.46</v>
@@ -21044,7 +21047,7 @@
         <v>142</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>1.65</v>
@@ -21250,7 +21253,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q98">
         <v>2.94</v>
@@ -21662,7 +21665,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q100">
         <v>1.91</v>
@@ -21949,7 +21952,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ101">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
         <v>1.69</v>
@@ -22074,7 +22077,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>3.75</v>
@@ -22486,7 +22489,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22898,7 +22901,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22976,7 +22979,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ106">
         <v>1.35</v>
@@ -23104,7 +23107,7 @@
         <v>136</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>2.56</v>
@@ -23185,7 +23188,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ107">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR107">
         <v>1.6</v>
@@ -23722,7 +23725,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23928,7 +23931,7 @@
         <v>83</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>4.5</v>
@@ -24340,7 +24343,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24624,7 +24627,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ114">
         <v>1.06</v>
@@ -25164,7 +25167,7 @@
         <v>143</v>
       </c>
       <c r="P117" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25576,7 +25579,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>2.2</v>
@@ -26069,7 +26072,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ121">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR121">
         <v>1.43</v>
@@ -26606,7 +26609,7 @@
         <v>155</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>6.09</v>
@@ -26684,7 +26687,7 @@
         <v>2.25</v>
       </c>
       <c r="AP124">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ124">
         <v>2.06</v>
@@ -26812,7 +26815,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -26890,7 +26893,7 @@
         <v>1.17</v>
       </c>
       <c r="AP125">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ125">
         <v>1.13</v>
@@ -27430,7 +27433,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -27923,7 +27926,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ130">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
         <v>1.47</v>
@@ -28254,7 +28257,7 @@
         <v>162</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>1.73</v>
@@ -28666,7 +28669,7 @@
         <v>164</v>
       </c>
       <c r="P134" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q134">
         <v>2.4</v>
@@ -29284,7 +29287,7 @@
         <v>167</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29490,7 +29493,7 @@
         <v>168</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>2.05</v>
@@ -29696,7 +29699,7 @@
         <v>169</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>1.58</v>
@@ -29777,7 +29780,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ139">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR139">
         <v>1.81</v>
@@ -29902,7 +29905,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -30108,7 +30111,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30314,7 +30317,7 @@
         <v>136</v>
       </c>
       <c r="P142" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30520,7 +30523,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>6.08</v>
@@ -30598,7 +30601,7 @@
         <v>2.21</v>
       </c>
       <c r="AP143">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ143">
         <v>2.31</v>
@@ -30726,7 +30729,7 @@
         <v>116</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31344,7 +31347,7 @@
         <v>83</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31550,7 +31553,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q148">
         <v>1.8</v>
@@ -31756,7 +31759,7 @@
         <v>175</v>
       </c>
       <c r="P149" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q149">
         <v>2.11</v>
@@ -31837,7 +31840,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ149">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR149">
         <v>1.51</v>
@@ -31962,7 +31965,7 @@
         <v>176</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -32168,7 +32171,7 @@
         <v>126</v>
       </c>
       <c r="P151" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32374,7 +32377,7 @@
         <v>177</v>
       </c>
       <c r="P152" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q152">
         <v>3.49</v>
@@ -32452,7 +32455,7 @@
         <v>1.43</v>
       </c>
       <c r="AP152">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ152">
         <v>1.29</v>
@@ -32580,7 +32583,7 @@
         <v>178</v>
       </c>
       <c r="P153" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q153">
         <v>5</v>
@@ -32786,7 +32789,7 @@
         <v>112</v>
       </c>
       <c r="P154" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q154">
         <v>4.03</v>
@@ -32992,7 +32995,7 @@
         <v>106</v>
       </c>
       <c r="P155" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33404,7 +33407,7 @@
         <v>179</v>
       </c>
       <c r="P157" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33691,7 +33694,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ158">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR158">
         <v>2.09</v>
@@ -34022,7 +34025,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q160">
         <v>1.67</v>
@@ -35052,7 +35055,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35209,6 +35212,212 @@
       </c>
       <c r="BP165">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>6575222</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45411.52083333334</v>
+      </c>
+      <c r="F166">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s">
+        <v>70</v>
+      </c>
+      <c r="H166" t="s">
+        <v>74</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166" t="s">
+        <v>186</v>
+      </c>
+      <c r="P166" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q166">
+        <v>2.5</v>
+      </c>
+      <c r="R166">
+        <v>2.2</v>
+      </c>
+      <c r="S166">
+        <v>4</v>
+      </c>
+      <c r="T166">
+        <v>1.36</v>
+      </c>
+      <c r="U166">
+        <v>3</v>
+      </c>
+      <c r="V166">
+        <v>2.75</v>
+      </c>
+      <c r="W166">
+        <v>1.4</v>
+      </c>
+      <c r="X166">
+        <v>6.5</v>
+      </c>
+      <c r="Y166">
+        <v>1.1</v>
+      </c>
+      <c r="Z166">
+        <v>1.95</v>
+      </c>
+      <c r="AA166">
+        <v>3.4</v>
+      </c>
+      <c r="AB166">
+        <v>3.5</v>
+      </c>
+      <c r="AC166">
+        <v>1.05</v>
+      </c>
+      <c r="AD166">
+        <v>7.8</v>
+      </c>
+      <c r="AE166">
+        <v>1.25</v>
+      </c>
+      <c r="AF166">
+        <v>3.5</v>
+      </c>
+      <c r="AG166">
+        <v>1.83</v>
+      </c>
+      <c r="AH166">
+        <v>1.88</v>
+      </c>
+      <c r="AI166">
+        <v>1.73</v>
+      </c>
+      <c r="AJ166">
+        <v>2</v>
+      </c>
+      <c r="AK166">
+        <v>1.23</v>
+      </c>
+      <c r="AL166">
+        <v>1.25</v>
+      </c>
+      <c r="AM166">
+        <v>1.7</v>
+      </c>
+      <c r="AN166">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO166">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP166">
+        <v>1.06</v>
+      </c>
+      <c r="AQ166">
+        <v>0.88</v>
+      </c>
+      <c r="AR166">
+        <v>1.19</v>
+      </c>
+      <c r="AS166">
+        <v>1.19</v>
+      </c>
+      <c r="AT166">
+        <v>2.38</v>
+      </c>
+      <c r="AU166">
+        <v>4</v>
+      </c>
+      <c r="AV166">
+        <v>5</v>
+      </c>
+      <c r="AW166">
+        <v>3</v>
+      </c>
+      <c r="AX166">
+        <v>1</v>
+      </c>
+      <c r="AY166">
+        <v>7</v>
+      </c>
+      <c r="AZ166">
+        <v>6</v>
+      </c>
+      <c r="BA166">
+        <v>5</v>
+      </c>
+      <c r="BB166">
+        <v>7</v>
+      </c>
+      <c r="BC166">
+        <v>12</v>
+      </c>
+      <c r="BD166">
+        <v>1.67</v>
+      </c>
+      <c r="BE166">
+        <v>8.6</v>
+      </c>
+      <c r="BF166">
+        <v>2.49</v>
+      </c>
+      <c r="BG166">
+        <v>1.17</v>
+      </c>
+      <c r="BH166">
+        <v>4.5</v>
+      </c>
+      <c r="BI166">
+        <v>1.3</v>
+      </c>
+      <c r="BJ166">
+        <v>3.2</v>
+      </c>
+      <c r="BK166">
+        <v>1.5</v>
+      </c>
+      <c r="BL166">
+        <v>2.4</v>
+      </c>
+      <c r="BM166">
+        <v>1.8</v>
+      </c>
+      <c r="BN166">
+        <v>1.91</v>
+      </c>
+      <c r="BO166">
+        <v>2.25</v>
+      </c>
+      <c r="BP166">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
@@ -35354,22 +35354,22 @@
         <v>2.38</v>
       </c>
       <c r="AU166">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV166">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW166">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY166">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ166">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA166">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,15 @@
     <t>['17', '84', '90+3']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['27', '40', '90+5']</t>
+  </si>
+  <si>
+    <t>['12', '28', '85']</t>
+  </si>
+  <si>
     <t>['30', '78', '90+4']</t>
   </si>
   <si>
@@ -677,9 +686,6 @@
   </si>
   <si>
     <t>['35']</t>
-  </si>
-  <si>
-    <t>['59']</t>
   </si>
   <si>
     <t>['6', '29', '45+6', '90+6']</t>
@@ -1218,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1483,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1558,7 +1564,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ2">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1967,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ4">
         <v>2.06</v>
@@ -2095,7 +2101,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>4.4</v>
@@ -2301,7 +2307,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2379,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ6">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2585,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ7">
         <v>1.06</v>
@@ -2919,7 +2925,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>2.97</v>
@@ -3000,7 +3006,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3203,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ10">
         <v>0.88</v>
@@ -3537,7 +3543,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>2.15</v>
@@ -3618,7 +3624,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR12">
         <v>2.57</v>
@@ -3743,7 +3749,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>2.66</v>
@@ -4027,10 +4033,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR14">
         <v>1.51</v>
@@ -4361,7 +4367,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4439,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ16">
         <v>1.25</v>
@@ -4567,7 +4573,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>3.2</v>
@@ -4773,7 +4779,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4979,7 +4985,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5057,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ19">
         <v>2.06</v>
@@ -5185,7 +5191,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>5.8</v>
@@ -5391,7 +5397,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>4.05</v>
@@ -5472,7 +5478,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ21">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5597,7 +5603,7 @@
         <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5675,7 +5681,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -5881,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -6009,7 +6015,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6087,10 +6093,10 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ24">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR24">
         <v>1.6</v>
@@ -6215,7 +6221,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6296,7 +6302,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR25">
         <v>2.02</v>
@@ -6421,7 +6427,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>3.25</v>
@@ -6502,7 +6508,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ26">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR26">
         <v>1.16</v>
@@ -6833,7 +6839,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>2.99</v>
@@ -7039,7 +7045,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7451,7 +7457,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>3.88</v>
@@ -7657,7 +7663,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7735,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7863,7 +7869,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -7944,7 +7950,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ33">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR33">
         <v>1.3</v>
@@ -8069,7 +8075,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8275,7 +8281,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8356,7 +8362,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ35">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR35">
         <v>1.51</v>
@@ -8481,7 +8487,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>3.6</v>
@@ -8559,10 +8565,10 @@
         <v>2.33</v>
       </c>
       <c r="AP36">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ36">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR36">
         <v>1.63</v>
@@ -8687,7 +8693,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>2.05</v>
@@ -8893,7 +8899,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>4.18</v>
@@ -9099,7 +9105,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9511,7 +9517,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9589,7 +9595,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ41">
         <v>1.29</v>
@@ -9798,7 +9804,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR42">
         <v>1.6</v>
@@ -9923,7 +9929,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>1.68</v>
@@ -10129,7 +10135,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10335,7 +10341,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>1.72</v>
@@ -10413,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ45">
         <v>1.06</v>
@@ -10747,7 +10753,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10828,7 +10834,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ47">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR47">
         <v>1.42</v>
@@ -10953,7 +10959,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11034,7 +11040,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ48">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR48">
         <v>1.24</v>
@@ -11159,7 +11165,7 @@
         <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11649,7 +11655,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ51">
         <v>1.35</v>
@@ -11858,7 +11864,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR52">
         <v>1.71</v>
@@ -12061,7 +12067,7 @@
         <v>2.4</v>
       </c>
       <c r="AP53">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ53">
         <v>1.25</v>
@@ -12395,7 +12401,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>1.9</v>
@@ -12601,7 +12607,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12679,7 +12685,7 @@
         <v>1.2</v>
       </c>
       <c r="AP56">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ56">
         <v>0.88</v>
@@ -12807,7 +12813,7 @@
         <v>83</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12888,7 +12894,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR57">
         <v>1.57</v>
@@ -13013,7 +13019,7 @@
         <v>83</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13219,7 +13225,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13425,7 +13431,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13503,7 +13509,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ60">
         <v>1.06</v>
@@ -13631,7 +13637,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -13837,7 +13843,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13918,7 +13924,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ62">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR62">
         <v>1.71</v>
@@ -14121,10 +14127,10 @@
         <v>0.83</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ63">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR63">
         <v>1.59</v>
@@ -14249,7 +14255,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>1.83</v>
@@ -14327,7 +14333,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14455,7 +14461,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>3.3</v>
@@ -14867,7 +14873,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>4.41</v>
@@ -15279,7 +15285,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>3.88</v>
@@ -15485,7 +15491,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>2.55</v>
@@ -15897,7 +15903,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>3.24</v>
@@ -15975,10 +15981,10 @@
         <v>0.86</v>
       </c>
       <c r="AP72">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR72">
         <v>1.41</v>
@@ -16103,7 +16109,7 @@
         <v>116</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>2.48</v>
@@ -16309,7 +16315,7 @@
         <v>83</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>2.24</v>
@@ -16387,10 +16393,10 @@
         <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ74">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR74">
         <v>1.49</v>
@@ -16515,7 +16521,7 @@
         <v>83</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>2.95</v>
@@ -16593,10 +16599,10 @@
         <v>2.33</v>
       </c>
       <c r="AP75">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ75">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR75">
         <v>1.81</v>
@@ -16927,7 +16933,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>4.17</v>
@@ -17008,7 +17014,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR77">
         <v>1.49</v>
@@ -17133,7 +17139,7 @@
         <v>83</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>4.92</v>
@@ -17339,7 +17345,7 @@
         <v>83</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17420,7 +17426,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ79">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17751,7 +17757,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>3.64</v>
@@ -17829,7 +17835,7 @@
         <v>2.14</v>
       </c>
       <c r="AP81">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ81">
         <v>1.29</v>
@@ -18369,7 +18375,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>2.83</v>
@@ -18447,7 +18453,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ84">
         <v>2.06</v>
@@ -18575,7 +18581,7 @@
         <v>83</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>4.6</v>
@@ -18656,7 +18662,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ85">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR85">
         <v>1.59</v>
@@ -18781,7 +18787,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18859,10 +18865,10 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ86">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR86">
         <v>1.38</v>
@@ -18987,7 +18993,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19065,7 +19071,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ87">
         <v>1.35</v>
@@ -19399,7 +19405,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19480,7 +19486,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR89">
         <v>2.12</v>
@@ -19605,7 +19611,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19683,10 +19689,10 @@
         <v>2.56</v>
       </c>
       <c r="AP90">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ90">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR90">
         <v>1.37</v>
@@ -19811,7 +19817,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20017,7 +20023,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20095,7 +20101,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ92">
         <v>2.06</v>
@@ -20304,7 +20310,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ93">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20429,7 +20435,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20635,7 +20641,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>2.96</v>
@@ -21047,7 +21053,7 @@
         <v>142</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>1.65</v>
@@ -21253,7 +21259,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>2.94</v>
@@ -21334,7 +21340,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR98">
         <v>1.53</v>
@@ -21537,7 +21543,7 @@
         <v>1.22</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ99">
         <v>1.06</v>
@@ -21665,7 +21671,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>1.91</v>
@@ -21949,7 +21955,7 @@
         <v>1.11</v>
       </c>
       <c r="AP101">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ101">
         <v>0.88</v>
@@ -22077,7 +22083,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>3.75</v>
@@ -22155,7 +22161,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ102">
         <v>1.29</v>
@@ -22364,7 +22370,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR103">
         <v>1.51</v>
@@ -22489,7 +22495,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22776,7 +22782,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ105">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR105">
         <v>1.52</v>
@@ -22901,7 +22907,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23107,7 +23113,7 @@
         <v>136</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q107">
         <v>2.56</v>
@@ -23394,7 +23400,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ108">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR108">
         <v>2.1</v>
@@ -23725,7 +23731,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23803,10 +23809,10 @@
         <v>1.1</v>
       </c>
       <c r="AP110">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ110">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -23931,7 +23937,7 @@
         <v>83</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>4.5</v>
@@ -24009,7 +24015,7 @@
         <v>2.18</v>
       </c>
       <c r="AP111">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ111">
         <v>2.06</v>
@@ -24343,7 +24349,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24424,7 +24430,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ113">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR113">
         <v>1.5</v>
@@ -25039,7 +25045,7 @@
         <v>1.3</v>
       </c>
       <c r="AP116">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ116">
         <v>1.25</v>
@@ -25167,7 +25173,7 @@
         <v>143</v>
       </c>
       <c r="P117" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25248,7 +25254,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ117">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR117">
         <v>2.08</v>
@@ -25451,10 +25457,10 @@
         <v>1.08</v>
       </c>
       <c r="AP118">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ118">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR118">
         <v>1.76</v>
@@ -25579,7 +25585,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>2.2</v>
@@ -25657,7 +25663,7 @@
         <v>0.58</v>
       </c>
       <c r="AP119">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -25866,7 +25872,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ120">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR120">
         <v>1.62</v>
@@ -26609,7 +26615,7 @@
         <v>155</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>6.09</v>
@@ -26815,7 +26821,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -26896,7 +26902,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ125">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR125">
         <v>1.12</v>
@@ -27099,7 +27105,7 @@
         <v>0.77</v>
       </c>
       <c r="AP126">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27308,7 +27314,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ127">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27433,7 +27439,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -27511,10 +27517,10 @@
         <v>2.15</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ128">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR128">
         <v>1.54</v>
@@ -28257,7 +28263,7 @@
         <v>162</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>1.73</v>
@@ -28541,7 +28547,7 @@
         <v>1.73</v>
       </c>
       <c r="AP133">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ133">
         <v>1.29</v>
@@ -28669,7 +28675,7 @@
         <v>164</v>
       </c>
       <c r="P134" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q134">
         <v>2.4</v>
@@ -28747,7 +28753,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ134">
         <v>1.25</v>
@@ -28956,7 +28962,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR135">
         <v>1.52</v>
@@ -29159,7 +29165,7 @@
         <v>1.15</v>
       </c>
       <c r="AP136">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ136">
         <v>1.06</v>
@@ -29287,7 +29293,7 @@
         <v>167</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29493,7 +29499,7 @@
         <v>168</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q138">
         <v>2.05</v>
@@ -29699,7 +29705,7 @@
         <v>169</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>1.58</v>
@@ -29905,7 +29911,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -29983,7 +29989,7 @@
         <v>1.15</v>
       </c>
       <c r="AP140">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ140">
         <v>1.35</v>
@@ -30111,7 +30117,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30317,7 +30323,7 @@
         <v>136</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30523,7 +30529,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>6.08</v>
@@ -30604,7 +30610,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ143">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR143">
         <v>1.13</v>
@@ -30729,7 +30735,7 @@
         <v>116</v>
       </c>
       <c r="P144" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -30810,7 +30816,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ144">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR144">
         <v>1.49</v>
@@ -31013,7 +31019,7 @@
         <v>1.21</v>
       </c>
       <c r="AP145">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ145">
         <v>1.25</v>
@@ -31222,7 +31228,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ146">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR146">
         <v>1.98</v>
@@ -31347,7 +31353,7 @@
         <v>83</v>
       </c>
       <c r="P147" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31553,7 +31559,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q148">
         <v>1.8</v>
@@ -31759,7 +31765,7 @@
         <v>175</v>
       </c>
       <c r="P149" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q149">
         <v>2.11</v>
@@ -31837,7 +31843,7 @@
         <v>1.07</v>
       </c>
       <c r="AP149">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
         <v>0.88</v>
@@ -31965,7 +31971,7 @@
         <v>176</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -32046,7 +32052,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AR150">
         <v>1.55</v>
@@ -32171,7 +32177,7 @@
         <v>126</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32377,7 +32383,7 @@
         <v>177</v>
       </c>
       <c r="P152" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q152">
         <v>3.49</v>
@@ -32583,7 +32589,7 @@
         <v>178</v>
       </c>
       <c r="P153" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q153">
         <v>5</v>
@@ -32789,7 +32795,7 @@
         <v>112</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q154">
         <v>4.03</v>
@@ -32867,7 +32873,7 @@
         <v>1.07</v>
       </c>
       <c r="AP154">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AQ154">
         <v>1.06</v>
@@ -32995,7 +33001,7 @@
         <v>106</v>
       </c>
       <c r="P155" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33407,7 +33413,7 @@
         <v>179</v>
       </c>
       <c r="P157" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33897,7 +33903,7 @@
         <v>1.07</v>
       </c>
       <c r="AP159">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -34025,7 +34031,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q160">
         <v>1.67</v>
@@ -34106,7 +34112,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ160">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR160">
         <v>2.03</v>
@@ -34309,10 +34315,10 @@
         <v>1.13</v>
       </c>
       <c r="AP161">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ161">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR161">
         <v>1.57</v>
@@ -35055,7 +35061,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35418,6 +35424,624 @@
       </c>
       <c r="BP166">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>6575224</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F167">
+        <v>34</v>
+      </c>
+      <c r="G167" t="s">
+        <v>74</v>
+      </c>
+      <c r="H167" t="s">
+        <v>71</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>187</v>
+      </c>
+      <c r="P167" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q167">
+        <v>4</v>
+      </c>
+      <c r="R167">
+        <v>2.1</v>
+      </c>
+      <c r="S167">
+        <v>2.55</v>
+      </c>
+      <c r="T167">
+        <v>1.42</v>
+      </c>
+      <c r="U167">
+        <v>2.65</v>
+      </c>
+      <c r="V167">
+        <v>2.95</v>
+      </c>
+      <c r="W167">
+        <v>1.35</v>
+      </c>
+      <c r="X167">
+        <v>7.23</v>
+      </c>
+      <c r="Y167">
+        <v>1.06</v>
+      </c>
+      <c r="Z167">
+        <v>2.8</v>
+      </c>
+      <c r="AA167">
+        <v>3.5</v>
+      </c>
+      <c r="AB167">
+        <v>2.2</v>
+      </c>
+      <c r="AC167">
+        <v>1.05</v>
+      </c>
+      <c r="AD167">
+        <v>8.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.33</v>
+      </c>
+      <c r="AF167">
+        <v>3.2</v>
+      </c>
+      <c r="AG167">
+        <v>2</v>
+      </c>
+      <c r="AH167">
+        <v>1.8</v>
+      </c>
+      <c r="AI167">
+        <v>1.8</v>
+      </c>
+      <c r="AJ167">
+        <v>1.83</v>
+      </c>
+      <c r="AK167">
+        <v>1.8</v>
+      </c>
+      <c r="AL167">
+        <v>1.25</v>
+      </c>
+      <c r="AM167">
+        <v>1.25</v>
+      </c>
+      <c r="AN167">
+        <v>0.75</v>
+      </c>
+      <c r="AO167">
+        <v>1.13</v>
+      </c>
+      <c r="AP167">
+        <v>0.76</v>
+      </c>
+      <c r="AQ167">
+        <v>1.12</v>
+      </c>
+      <c r="AR167">
+        <v>1.3</v>
+      </c>
+      <c r="AS167">
+        <v>1.5</v>
+      </c>
+      <c r="AT167">
+        <v>2.8</v>
+      </c>
+      <c r="AU167">
+        <v>6</v>
+      </c>
+      <c r="AV167">
+        <v>6</v>
+      </c>
+      <c r="AW167">
+        <v>8</v>
+      </c>
+      <c r="AX167">
+        <v>10</v>
+      </c>
+      <c r="AY167">
+        <v>14</v>
+      </c>
+      <c r="AZ167">
+        <v>16</v>
+      </c>
+      <c r="BA167">
+        <v>4</v>
+      </c>
+      <c r="BB167">
+        <v>1</v>
+      </c>
+      <c r="BC167">
+        <v>5</v>
+      </c>
+      <c r="BD167">
+        <v>2.6</v>
+      </c>
+      <c r="BE167">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF167">
+        <v>1.6</v>
+      </c>
+      <c r="BG167">
+        <v>1.18</v>
+      </c>
+      <c r="BH167">
+        <v>4.3</v>
+      </c>
+      <c r="BI167">
+        <v>1.35</v>
+      </c>
+      <c r="BJ167">
+        <v>3</v>
+      </c>
+      <c r="BK167">
+        <v>1.63</v>
+      </c>
+      <c r="BL167">
+        <v>2.24</v>
+      </c>
+      <c r="BM167">
+        <v>2</v>
+      </c>
+      <c r="BN167">
+        <v>1.79</v>
+      </c>
+      <c r="BO167">
+        <v>2.52</v>
+      </c>
+      <c r="BP167">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>6575226</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45416.52083333334</v>
+      </c>
+      <c r="F168">
+        <v>34</v>
+      </c>
+      <c r="G168" t="s">
+        <v>72</v>
+      </c>
+      <c r="H168" t="s">
+        <v>76</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168" t="s">
+        <v>188</v>
+      </c>
+      <c r="P168" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q168">
+        <v>2.75</v>
+      </c>
+      <c r="R168">
+        <v>2.2</v>
+      </c>
+      <c r="S168">
+        <v>3.6</v>
+      </c>
+      <c r="T168">
+        <v>1.36</v>
+      </c>
+      <c r="U168">
+        <v>2.99</v>
+      </c>
+      <c r="V168">
+        <v>2.7</v>
+      </c>
+      <c r="W168">
+        <v>1.43</v>
+      </c>
+      <c r="X168">
+        <v>6.49</v>
+      </c>
+      <c r="Y168">
+        <v>1.08</v>
+      </c>
+      <c r="Z168">
+        <v>2.1</v>
+      </c>
+      <c r="AA168">
+        <v>3.5</v>
+      </c>
+      <c r="AB168">
+        <v>3</v>
+      </c>
+      <c r="AC168">
+        <v>1.02</v>
+      </c>
+      <c r="AD168">
+        <v>10</v>
+      </c>
+      <c r="AE168">
+        <v>1.25</v>
+      </c>
+      <c r="AF168">
+        <v>3.6</v>
+      </c>
+      <c r="AG168">
+        <v>1.93</v>
+      </c>
+      <c r="AH168">
+        <v>1.88</v>
+      </c>
+      <c r="AI168">
+        <v>1.65</v>
+      </c>
+      <c r="AJ168">
+        <v>2.05</v>
+      </c>
+      <c r="AK168">
+        <v>1.35</v>
+      </c>
+      <c r="AL168">
+        <v>1.3</v>
+      </c>
+      <c r="AM168">
+        <v>1.7</v>
+      </c>
+      <c r="AN168">
+        <v>1.38</v>
+      </c>
+      <c r="AO168">
+        <v>1.19</v>
+      </c>
+      <c r="AP168">
+        <v>1.47</v>
+      </c>
+      <c r="AQ168">
+        <v>1.12</v>
+      </c>
+      <c r="AR168">
+        <v>1.56</v>
+      </c>
+      <c r="AS168">
+        <v>1.42</v>
+      </c>
+      <c r="AT168">
+        <v>2.98</v>
+      </c>
+      <c r="AU168">
+        <v>7</v>
+      </c>
+      <c r="AV168">
+        <v>5</v>
+      </c>
+      <c r="AW168">
+        <v>7</v>
+      </c>
+      <c r="AX168">
+        <v>4</v>
+      </c>
+      <c r="AY168">
+        <v>14</v>
+      </c>
+      <c r="AZ168">
+        <v>9</v>
+      </c>
+      <c r="BA168">
+        <v>5</v>
+      </c>
+      <c r="BB168">
+        <v>3</v>
+      </c>
+      <c r="BC168">
+        <v>8</v>
+      </c>
+      <c r="BD168">
+        <v>1.66</v>
+      </c>
+      <c r="BE168">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF168">
+        <v>2.5</v>
+      </c>
+      <c r="BG168">
+        <v>1.29</v>
+      </c>
+      <c r="BH168">
+        <v>3.3</v>
+      </c>
+      <c r="BI168">
+        <v>1.44</v>
+      </c>
+      <c r="BJ168">
+        <v>2.51</v>
+      </c>
+      <c r="BK168">
+        <v>1.77</v>
+      </c>
+      <c r="BL168">
+        <v>1.9</v>
+      </c>
+      <c r="BM168">
+        <v>2.28</v>
+      </c>
+      <c r="BN168">
+        <v>1.53</v>
+      </c>
+      <c r="BO168">
+        <v>2.88</v>
+      </c>
+      <c r="BP168">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>6575227</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45416.63541666666</v>
+      </c>
+      <c r="F169">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>77</v>
+      </c>
+      <c r="H169" t="s">
+        <v>78</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>189</v>
+      </c>
+      <c r="P169" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q169">
+        <v>2.63</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>3.75</v>
+      </c>
+      <c r="T169">
+        <v>1.32</v>
+      </c>
+      <c r="U169">
+        <v>3.09</v>
+      </c>
+      <c r="V169">
+        <v>2.57</v>
+      </c>
+      <c r="W169">
+        <v>1.47</v>
+      </c>
+      <c r="X169">
+        <v>5.97</v>
+      </c>
+      <c r="Y169">
+        <v>1.09</v>
+      </c>
+      <c r="Z169">
+        <v>1.65</v>
+      </c>
+      <c r="AA169">
+        <v>3.65</v>
+      </c>
+      <c r="AB169">
+        <v>3.85</v>
+      </c>
+      <c r="AC169">
+        <v>1.01</v>
+      </c>
+      <c r="AD169">
+        <v>10.5</v>
+      </c>
+      <c r="AE169">
+        <v>1.21</v>
+      </c>
+      <c r="AF169">
+        <v>3.74</v>
+      </c>
+      <c r="AG169">
+        <v>1.7</v>
+      </c>
+      <c r="AH169">
+        <v>2.05</v>
+      </c>
+      <c r="AI169">
+        <v>1.62</v>
+      </c>
+      <c r="AJ169">
+        <v>2.1</v>
+      </c>
+      <c r="AK169">
+        <v>1.26</v>
+      </c>
+      <c r="AL169">
+        <v>1.25</v>
+      </c>
+      <c r="AM169">
+        <v>1.76</v>
+      </c>
+      <c r="AN169">
+        <v>2.5</v>
+      </c>
+      <c r="AO169">
+        <v>2.31</v>
+      </c>
+      <c r="AP169">
+        <v>2.53</v>
+      </c>
+      <c r="AQ169">
+        <v>2.18</v>
+      </c>
+      <c r="AR169">
+        <v>1.86</v>
+      </c>
+      <c r="AS169">
+        <v>1.78</v>
+      </c>
+      <c r="AT169">
+        <v>3.64</v>
+      </c>
+      <c r="AU169">
+        <v>7</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>7</v>
+      </c>
+      <c r="AX169">
+        <v>13</v>
+      </c>
+      <c r="AY169">
+        <v>14</v>
+      </c>
+      <c r="AZ169">
+        <v>17</v>
+      </c>
+      <c r="BA169">
+        <v>5</v>
+      </c>
+      <c r="BB169">
+        <v>6</v>
+      </c>
+      <c r="BC169">
+        <v>11</v>
+      </c>
+      <c r="BD169">
+        <v>1.5</v>
+      </c>
+      <c r="BE169">
+        <v>9.1</v>
+      </c>
+      <c r="BF169">
+        <v>2.93</v>
+      </c>
+      <c r="BG169">
+        <v>1.25</v>
+      </c>
+      <c r="BH169">
+        <v>3.6</v>
+      </c>
+      <c r="BI169">
+        <v>1.4</v>
+      </c>
+      <c r="BJ169">
+        <v>2.64</v>
+      </c>
+      <c r="BK169">
+        <v>1.7</v>
+      </c>
+      <c r="BL169">
+        <v>1.98</v>
+      </c>
+      <c r="BM169">
+        <v>2.15</v>
+      </c>
+      <c r="BN169">
+        <v>1.59</v>
+      </c>
+      <c r="BO169">
+        <v>2.7</v>
+      </c>
+      <c r="BP169">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>['12', '28', '85']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
   <si>
     <t>['30', '78', '90+4']</t>
@@ -1224,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1486,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1770,7 +1773,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2101,7 +2104,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>4.4</v>
@@ -2179,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ5">
         <v>1.35</v>
@@ -2307,7 +2310,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2800,7 +2803,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2925,7 +2928,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>2.97</v>
@@ -3543,7 +3546,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>2.15</v>
@@ -3749,7 +3752,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>2.66</v>
@@ -3827,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ13">
         <v>0.88</v>
@@ -4242,7 +4245,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR15">
         <v>2.34</v>
@@ -4367,7 +4370,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4573,7 +4576,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>3.2</v>
@@ -4779,7 +4782,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4985,7 +4988,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5191,7 +5194,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>5.8</v>
@@ -5397,7 +5400,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>4.05</v>
@@ -5603,7 +5606,7 @@
         <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5890,7 +5893,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR23">
         <v>1.63</v>
@@ -6015,7 +6018,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6221,7 +6224,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6427,7 +6430,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>3.25</v>
@@ -6505,7 +6508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ26">
         <v>1.12</v>
@@ -6839,7 +6842,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>2.99</v>
@@ -7045,7 +7048,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7457,7 +7460,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>3.88</v>
@@ -7663,7 +7666,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7744,7 +7747,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR32">
         <v>1.41</v>
@@ -7869,7 +7872,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8075,7 +8078,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8281,7 +8284,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8359,7 +8362,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ35">
         <v>1.12</v>
@@ -8487,7 +8490,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>3.6</v>
@@ -8693,7 +8696,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>2.05</v>
@@ -8899,7 +8902,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>4.18</v>
@@ -9105,7 +9108,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9517,7 +9520,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9929,7 +9932,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>1.68</v>
@@ -10135,7 +10138,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10341,7 +10344,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>1.72</v>
@@ -10753,7 +10756,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10959,7 +10962,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11165,7 +11168,7 @@
         <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11449,7 +11452,7 @@
         <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ50">
         <v>1.29</v>
@@ -12276,7 +12279,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR54">
         <v>1.73</v>
@@ -12401,7 +12404,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>1.9</v>
@@ -12813,7 +12816,7 @@
         <v>83</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13019,7 +13022,7 @@
         <v>83</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13225,7 +13228,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13431,7 +13434,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13637,7 +13640,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -13843,7 +13846,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -14255,7 +14258,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>1.83</v>
@@ -14336,7 +14339,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR64">
         <v>1.75</v>
@@ -14461,7 +14464,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>3.3</v>
@@ -14539,7 +14542,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ65">
         <v>1.25</v>
@@ -14873,7 +14876,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q67">
         <v>4.41</v>
@@ -15285,7 +15288,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>3.88</v>
@@ -15491,7 +15494,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>2.55</v>
@@ -15903,7 +15906,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>3.24</v>
@@ -16109,7 +16112,7 @@
         <v>116</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>2.48</v>
@@ -16187,10 +16190,10 @@
         <v>0.43</v>
       </c>
       <c r="AP73">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR73">
         <v>1.55</v>
@@ -16315,7 +16318,7 @@
         <v>83</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>2.24</v>
@@ -16521,7 +16524,7 @@
         <v>83</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>2.95</v>
@@ -16933,7 +16936,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>4.17</v>
@@ -17139,7 +17142,7 @@
         <v>83</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q78">
         <v>4.92</v>
@@ -17217,7 +17220,7 @@
         <v>2.14</v>
       </c>
       <c r="AP78">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ78">
         <v>2.06</v>
@@ -17345,7 +17348,7 @@
         <v>83</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17757,7 +17760,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q81">
         <v>3.64</v>
@@ -18375,7 +18378,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q84">
         <v>2.83</v>
@@ -18581,7 +18584,7 @@
         <v>83</v>
       </c>
       <c r="P85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q85">
         <v>4.6</v>
@@ -18659,7 +18662,7 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ85">
         <v>2.18</v>
@@ -18787,7 +18790,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18993,7 +18996,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19280,7 +19283,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19405,7 +19408,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19611,7 +19614,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19817,7 +19820,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19898,7 +19901,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -20023,7 +20026,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20435,7 +20438,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20513,7 +20516,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ94">
         <v>1.35</v>
@@ -20641,7 +20644,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>2.96</v>
@@ -21053,7 +21056,7 @@
         <v>142</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>1.65</v>
@@ -21134,7 +21137,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR97">
         <v>2.13</v>
@@ -21259,7 +21262,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>2.94</v>
@@ -21671,7 +21674,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q100">
         <v>1.91</v>
@@ -22083,7 +22086,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q102">
         <v>3.75</v>
@@ -22495,7 +22498,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22573,7 +22576,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ104">
         <v>2.06</v>
@@ -22907,7 +22910,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23113,7 +23116,7 @@
         <v>136</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q107">
         <v>2.56</v>
@@ -23191,7 +23194,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ107">
         <v>0.88</v>
@@ -23606,7 +23609,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
         <v>1.81</v>
@@ -23731,7 +23734,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23937,7 +23940,7 @@
         <v>83</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>4.5</v>
@@ -24349,7 +24352,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -25173,7 +25176,7 @@
         <v>143</v>
       </c>
       <c r="P117" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25585,7 +25588,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>2.2</v>
@@ -25666,7 +25669,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -25869,7 +25872,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ120">
         <v>1.12</v>
@@ -26615,7 +26618,7 @@
         <v>155</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>6.09</v>
@@ -26821,7 +26824,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27108,7 +27111,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27311,7 +27314,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ127">
         <v>1.12</v>
@@ -27439,7 +27442,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -28263,7 +28266,7 @@
         <v>162</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>1.73</v>
@@ -28675,7 +28678,7 @@
         <v>164</v>
       </c>
       <c r="P134" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q134">
         <v>2.4</v>
@@ -29293,7 +29296,7 @@
         <v>167</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29499,7 +29502,7 @@
         <v>168</v>
       </c>
       <c r="P138" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q138">
         <v>2.05</v>
@@ -29705,7 +29708,7 @@
         <v>169</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>1.58</v>
@@ -29911,7 +29914,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -30117,7 +30120,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30323,7 +30326,7 @@
         <v>136</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30401,7 +30404,7 @@
         <v>1.46</v>
       </c>
       <c r="AP142">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ142">
         <v>1.29</v>
@@ -30529,7 +30532,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>6.08</v>
@@ -30735,7 +30738,7 @@
         <v>116</v>
       </c>
       <c r="P144" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31353,7 +31356,7 @@
         <v>83</v>
       </c>
       <c r="P147" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31434,7 +31437,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR147">
         <v>1.55</v>
@@ -31559,7 +31562,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q148">
         <v>1.8</v>
@@ -31765,7 +31768,7 @@
         <v>175</v>
       </c>
       <c r="P149" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q149">
         <v>2.11</v>
@@ -31971,7 +31974,7 @@
         <v>176</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -32177,7 +32180,7 @@
         <v>126</v>
       </c>
       <c r="P151" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32383,7 +32386,7 @@
         <v>177</v>
       </c>
       <c r="P152" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q152">
         <v>3.49</v>
@@ -32589,7 +32592,7 @@
         <v>178</v>
       </c>
       <c r="P153" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q153">
         <v>5</v>
@@ -32795,7 +32798,7 @@
         <v>112</v>
       </c>
       <c r="P154" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>4.03</v>
@@ -33001,7 +33004,7 @@
         <v>106</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33413,7 +33416,7 @@
         <v>179</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33491,7 +33494,7 @@
         <v>1.13</v>
       </c>
       <c r="AP157">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AQ157">
         <v>1.25</v>
@@ -33906,7 +33909,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ159">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR159">
         <v>1.83</v>
@@ -34031,7 +34034,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q160">
         <v>1.67</v>
@@ -35061,7 +35064,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35473,7 +35476,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35772,22 +35775,22 @@
         <v>2.98</v>
       </c>
       <c r="AU168">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV168">
+        <v>3</v>
+      </c>
+      <c r="AW168">
         <v>5</v>
       </c>
-      <c r="AW168">
-        <v>7</v>
-      </c>
       <c r="AX168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY168">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ168">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA168">
         <v>5</v>
@@ -35885,7 +35888,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q169">
         <v>2.63</v>
@@ -36042,6 +36045,212 @@
       </c>
       <c r="BP169">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>6575225</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="F170">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>73</v>
+      </c>
+      <c r="H170" t="s">
+        <v>79</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>190</v>
+      </c>
+      <c r="P170" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q170">
+        <v>2.66</v>
+      </c>
+      <c r="R170">
+        <v>2.27</v>
+      </c>
+      <c r="S170">
+        <v>4.02</v>
+      </c>
+      <c r="T170">
+        <v>1.36</v>
+      </c>
+      <c r="U170">
+        <v>3.07</v>
+      </c>
+      <c r="V170">
+        <v>2.81</v>
+      </c>
+      <c r="W170">
+        <v>1.42</v>
+      </c>
+      <c r="X170">
+        <v>7</v>
+      </c>
+      <c r="Y170">
+        <v>1.07</v>
+      </c>
+      <c r="Z170">
+        <v>2.45</v>
+      </c>
+      <c r="AA170">
+        <v>3.2</v>
+      </c>
+      <c r="AB170">
+        <v>2.6</v>
+      </c>
+      <c r="AC170">
+        <v>1.02</v>
+      </c>
+      <c r="AD170">
+        <v>8.5</v>
+      </c>
+      <c r="AE170">
+        <v>1.28</v>
+      </c>
+      <c r="AF170">
+        <v>3.2</v>
+      </c>
+      <c r="AG170">
+        <v>1.96</v>
+      </c>
+      <c r="AH170">
+        <v>1.75</v>
+      </c>
+      <c r="AI170">
+        <v>1.73</v>
+      </c>
+      <c r="AJ170">
+        <v>1.95</v>
+      </c>
+      <c r="AK170">
+        <v>1.3</v>
+      </c>
+      <c r="AL170">
+        <v>1.29</v>
+      </c>
+      <c r="AM170">
+        <v>1.61</v>
+      </c>
+      <c r="AN170">
+        <v>0.63</v>
+      </c>
+      <c r="AO170">
+        <v>1</v>
+      </c>
+      <c r="AP170">
+        <v>0.76</v>
+      </c>
+      <c r="AQ170">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR170">
+        <v>1.57</v>
+      </c>
+      <c r="AS170">
+        <v>1.25</v>
+      </c>
+      <c r="AT170">
+        <v>2.82</v>
+      </c>
+      <c r="AU170">
+        <v>2</v>
+      </c>
+      <c r="AV170">
+        <v>0</v>
+      </c>
+      <c r="AW170">
+        <v>5</v>
+      </c>
+      <c r="AX170">
+        <v>7</v>
+      </c>
+      <c r="AY170">
+        <v>7</v>
+      </c>
+      <c r="AZ170">
+        <v>7</v>
+      </c>
+      <c r="BA170">
+        <v>1</v>
+      </c>
+      <c r="BB170">
+        <v>3</v>
+      </c>
+      <c r="BC170">
+        <v>4</v>
+      </c>
+      <c r="BD170">
+        <v>2.02</v>
+      </c>
+      <c r="BE170">
+        <v>8.5</v>
+      </c>
+      <c r="BF170">
+        <v>1.98</v>
+      </c>
+      <c r="BG170">
+        <v>1.26</v>
+      </c>
+      <c r="BH170">
+        <v>3.49</v>
+      </c>
+      <c r="BI170">
+        <v>1.51</v>
+      </c>
+      <c r="BJ170">
+        <v>2.48</v>
+      </c>
+      <c r="BK170">
+        <v>1.86</v>
+      </c>
+      <c r="BL170">
+        <v>1.93</v>
+      </c>
+      <c r="BM170">
+        <v>2.34</v>
+      </c>
+      <c r="BN170">
+        <v>1.57</v>
+      </c>
+      <c r="BO170">
+        <v>3.1</v>
+      </c>
+      <c r="BP170">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1227,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ8">
         <v>0.9399999999999999</v>
@@ -3421,7 +3421,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ12">
         <v>1.12</v>
@@ -4451,7 +4451,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR16">
         <v>1.27</v>
@@ -5687,7 +5687,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR22">
         <v>1.41</v>
@@ -6302,7 +6302,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ25">
         <v>2.18</v>
@@ -8156,7 +8156,7 @@
         <v>1.33</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ34">
         <v>1.35</v>
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR39">
         <v>1.49</v>
@@ -10219,7 +10219,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR44">
         <v>1.76</v>
@@ -10628,7 +10628,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ46">
         <v>1.29</v>
@@ -12073,7 +12073,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR53">
         <v>1.74</v>
@@ -12482,7 +12482,7 @@
         <v>0.8</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
         <v>1.06</v>
@@ -14545,7 +14545,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ65">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR65">
         <v>1.44</v>
@@ -14748,7 +14748,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -16808,10 +16808,10 @@
         <v>1.86</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR76">
         <v>1.95</v>
@@ -18253,7 +18253,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR83">
         <v>1.4</v>
@@ -19486,7 +19486,7 @@
         <v>0.88</v>
       </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ89">
         <v>1.12</v>
@@ -21134,7 +21134,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ97">
         <v>0.9399999999999999</v>
@@ -21755,7 +21755,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ100">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR100">
         <v>1.75</v>
@@ -23400,7 +23400,7 @@
         <v>1.18</v>
       </c>
       <c r="AP108">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ108">
         <v>1.12</v>
@@ -25051,7 +25051,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25254,7 +25254,7 @@
         <v>2.25</v>
       </c>
       <c r="AP117">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ117">
         <v>2.18</v>
@@ -28141,7 +28141,7 @@
         <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR131">
         <v>1.54</v>
@@ -28759,7 +28759,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ134">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR134">
         <v>1.52</v>
@@ -29377,7 +29377,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ137">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR137">
         <v>1.52</v>
@@ -29580,7 +29580,7 @@
         <v>1.58</v>
       </c>
       <c r="AP138">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ138">
         <v>1.29</v>
@@ -31025,7 +31025,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ145">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -31640,7 +31640,7 @@
         <v>1.07</v>
       </c>
       <c r="AP148">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ148">
         <v>1.06</v>
@@ -33082,7 +33082,7 @@
         <v>1.27</v>
       </c>
       <c r="AP155">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ155">
         <v>1.35</v>
@@ -33497,7 +33497,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ157">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR157">
         <v>1.56</v>
@@ -33700,7 +33700,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ158">
         <v>0.88</v>
@@ -35775,22 +35775,22 @@
         <v>2.98</v>
       </c>
       <c r="AU168">
+        <v>7</v>
+      </c>
+      <c r="AV168">
         <v>5</v>
       </c>
-      <c r="AV168">
-        <v>3</v>
-      </c>
       <c r="AW168">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY168">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ168">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA168">
         <v>5</v>
@@ -36187,22 +36187,22 @@
         <v>2.82</v>
       </c>
       <c r="AU170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV170">
         <v>0</v>
       </c>
       <c r="AW170">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX170">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ170">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA170">
         <v>1</v>
@@ -36251,6 +36251,212 @@
       </c>
       <c r="BP170">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>6575223</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45417.52083333334</v>
+      </c>
+      <c r="F171">
+        <v>34</v>
+      </c>
+      <c r="G171" t="s">
+        <v>75</v>
+      </c>
+      <c r="H171" t="s">
+        <v>70</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>83</v>
+      </c>
+      <c r="P171" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q171">
+        <v>1.8</v>
+      </c>
+      <c r="R171">
+        <v>2.5</v>
+      </c>
+      <c r="S171">
+        <v>6.5</v>
+      </c>
+      <c r="T171">
+        <v>1.28</v>
+      </c>
+      <c r="U171">
+        <v>3.42</v>
+      </c>
+      <c r="V171">
+        <v>2.36</v>
+      </c>
+      <c r="W171">
+        <v>1.55</v>
+      </c>
+      <c r="X171">
+        <v>5.22</v>
+      </c>
+      <c r="Y171">
+        <v>1.12</v>
+      </c>
+      <c r="Z171">
+        <v>1.32</v>
+      </c>
+      <c r="AA171">
+        <v>4.85</v>
+      </c>
+      <c r="AB171">
+        <v>6.4</v>
+      </c>
+      <c r="AC171">
+        <v>1.01</v>
+      </c>
+      <c r="AD171">
+        <v>12</v>
+      </c>
+      <c r="AE171">
+        <v>1.16</v>
+      </c>
+      <c r="AF171">
+        <v>4.35</v>
+      </c>
+      <c r="AG171">
+        <v>1.57</v>
+      </c>
+      <c r="AH171">
+        <v>2.2</v>
+      </c>
+      <c r="AI171">
+        <v>1.87</v>
+      </c>
+      <c r="AJ171">
+        <v>1.79</v>
+      </c>
+      <c r="AK171">
+        <v>1.04</v>
+      </c>
+      <c r="AL171">
+        <v>1.13</v>
+      </c>
+      <c r="AM171">
+        <v>3.12</v>
+      </c>
+      <c r="AN171">
+        <v>1.75</v>
+      </c>
+      <c r="AO171">
+        <v>1.25</v>
+      </c>
+      <c r="AP171">
+        <v>1.71</v>
+      </c>
+      <c r="AQ171">
+        <v>1.24</v>
+      </c>
+      <c r="AR171">
+        <v>2.11</v>
+      </c>
+      <c r="AS171">
+        <v>1.31</v>
+      </c>
+      <c r="AT171">
+        <v>3.42</v>
+      </c>
+      <c r="AU171">
+        <v>8</v>
+      </c>
+      <c r="AV171">
+        <v>2</v>
+      </c>
+      <c r="AW171">
+        <v>16</v>
+      </c>
+      <c r="AX171">
+        <v>1</v>
+      </c>
+      <c r="AY171">
+        <v>24</v>
+      </c>
+      <c r="AZ171">
+        <v>3</v>
+      </c>
+      <c r="BA171">
+        <v>10</v>
+      </c>
+      <c r="BB171">
+        <v>2</v>
+      </c>
+      <c r="BC171">
+        <v>12</v>
+      </c>
+      <c r="BD171">
+        <v>1.3</v>
+      </c>
+      <c r="BE171">
+        <v>9.5</v>
+      </c>
+      <c r="BF171">
+        <v>4.1</v>
+      </c>
+      <c r="BG171">
+        <v>1.16</v>
+      </c>
+      <c r="BH171">
+        <v>4.59</v>
+      </c>
+      <c r="BI171">
+        <v>1.32</v>
+      </c>
+      <c r="BJ171">
+        <v>3.11</v>
+      </c>
+      <c r="BK171">
+        <v>1.55</v>
+      </c>
+      <c r="BL171">
+        <v>2.39</v>
+      </c>
+      <c r="BM171">
+        <v>1.92</v>
+      </c>
+      <c r="BN171">
+        <v>1.88</v>
+      </c>
+      <c r="BO171">
+        <v>2.42</v>
+      </c>
+      <c r="BP171">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,12 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['15', '68']</t>
+  </si>
+  <si>
     <t>['30', '78', '90+4']</t>
   </si>
   <si>
@@ -778,9 +784,6 @@
     <t>['26', '31', '64']</t>
   </si>
   <si>
-    <t>['10']</t>
-  </si>
-  <si>
     <t>['4', '87']</t>
   </si>
   <si>
@@ -866,6 +869,9 @@
   </si>
   <si>
     <t>['45+1', '54']</t>
+  </si>
+  <si>
+    <t>['23', '36', '42', '45+3']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1492,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1979,7 +1985,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2104,7 +2110,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>4.4</v>
@@ -2310,7 +2316,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2928,7 +2934,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>2.97</v>
@@ -3006,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ9">
         <v>1.12</v>
@@ -3212,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ10">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3546,7 +3552,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>2.15</v>
@@ -3752,7 +3758,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>2.66</v>
@@ -3833,7 +3839,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ13">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -4036,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ14">
         <v>1.12</v>
@@ -4370,7 +4376,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4576,7 +4582,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>3.2</v>
@@ -4782,7 +4788,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4988,7 +4994,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5069,7 +5075,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ19">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR19">
         <v>1.5</v>
@@ -5194,7 +5200,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>5.8</v>
@@ -5272,7 +5278,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ20">
         <v>1.35</v>
@@ -5400,7 +5406,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>4.05</v>
@@ -5478,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
         <v>2.18</v>
@@ -5606,7 +5612,7 @@
         <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -6018,7 +6024,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6096,7 +6102,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ24">
         <v>1.12</v>
@@ -6224,7 +6230,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6430,7 +6436,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>3.25</v>
@@ -6717,7 +6723,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ27">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.25</v>
@@ -6842,7 +6848,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>2.99</v>
@@ -6920,7 +6926,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ28">
         <v>1.29</v>
@@ -7048,7 +7054,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7126,7 +7132,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ29">
         <v>1.06</v>
@@ -7460,7 +7466,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>3.88</v>
@@ -7541,7 +7547,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ31">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR31">
         <v>1.35</v>
@@ -7666,7 +7672,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7872,7 +7878,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8078,7 +8084,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8284,7 +8290,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8490,7 +8496,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>3.6</v>
@@ -8696,7 +8702,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>2.05</v>
@@ -8774,10 +8780,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.55</v>
@@ -8902,7 +8908,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>4.18</v>
@@ -8983,7 +8989,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ38">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR38">
         <v>1.33</v>
@@ -9108,7 +9114,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9186,7 +9192,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ39">
         <v>1.24</v>
@@ -9520,7 +9526,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9598,7 +9604,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ41">
         <v>1.29</v>
@@ -9804,7 +9810,7 @@
         <v>1.25</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ42">
         <v>1.12</v>
@@ -9932,7 +9938,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>1.68</v>
@@ -10013,7 +10019,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ43">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.84</v>
@@ -10138,7 +10144,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10216,7 +10222,7 @@
         <v>2.25</v>
       </c>
       <c r="AP44">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
         <v>1.24</v>
@@ -10344,7 +10350,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>1.72</v>
@@ -10422,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ45">
         <v>1.06</v>
@@ -10756,7 +10762,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10962,7 +10968,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11168,7 +11174,7 @@
         <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11246,10 +11252,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ49">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR49">
         <v>1.62</v>
@@ -12070,7 +12076,7 @@
         <v>2.4</v>
       </c>
       <c r="AP53">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ53">
         <v>1.24</v>
@@ -12276,7 +12282,7 @@
         <v>0.6</v>
       </c>
       <c r="AP54">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54">
         <v>0.9399999999999999</v>
@@ -12404,7 +12410,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q55">
         <v>1.9</v>
@@ -12691,7 +12697,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ56">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.59</v>
@@ -12816,7 +12822,7 @@
         <v>83</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12894,7 +12900,7 @@
         <v>2.2</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ57">
         <v>2.18</v>
@@ -13022,7 +13028,7 @@
         <v>83</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13100,10 +13106,10 @@
         <v>1.8</v>
       </c>
       <c r="AP58">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR58">
         <v>1.68</v>
@@ -13228,7 +13234,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13434,7 +13440,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13640,7 +13646,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -13846,7 +13852,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -14258,7 +14264,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>1.83</v>
@@ -14336,7 +14342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ64">
         <v>0.9399999999999999</v>
@@ -14464,7 +14470,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>3.3</v>
@@ -14751,7 +14757,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ66">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14876,7 +14882,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>4.41</v>
@@ -14954,7 +14960,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ67">
         <v>1.29</v>
@@ -15163,7 +15169,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ68">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.19</v>
@@ -15288,7 +15294,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>3.88</v>
@@ -15366,7 +15372,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69">
         <v>1.35</v>
@@ -15494,7 +15500,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>2.55</v>
@@ -15781,7 +15787,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ71">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR71">
         <v>1.83</v>
@@ -15906,7 +15912,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>3.24</v>
@@ -16112,7 +16118,7 @@
         <v>116</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>2.48</v>
@@ -16318,7 +16324,7 @@
         <v>83</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>2.24</v>
@@ -16524,7 +16530,7 @@
         <v>83</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>2.95</v>
@@ -16602,7 +16608,7 @@
         <v>2.33</v>
       </c>
       <c r="AP75">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ75">
         <v>2.18</v>
@@ -16936,7 +16942,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>4.17</v>
@@ -17014,7 +17020,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ77">
         <v>1.12</v>
@@ -17142,7 +17148,7 @@
         <v>83</v>
       </c>
       <c r="P78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>4.92</v>
@@ -17223,7 +17229,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ78">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17348,7 +17354,7 @@
         <v>83</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17760,7 +17766,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>3.64</v>
@@ -18044,7 +18050,7 @@
         <v>1.38</v>
       </c>
       <c r="AP82">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ82">
         <v>1.06</v>
@@ -18378,7 +18384,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>2.83</v>
@@ -18456,10 +18462,10 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ84">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR84">
         <v>1.73</v>
@@ -18584,7 +18590,7 @@
         <v>83</v>
       </c>
       <c r="P85" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q85">
         <v>4.6</v>
@@ -18790,7 +18796,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18996,7 +19002,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19408,7 +19414,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19614,7 +19620,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19820,7 +19826,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20026,7 +20032,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20107,7 +20113,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ92">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR92">
         <v>1.52</v>
@@ -20438,7 +20444,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20644,7 +20650,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>2.96</v>
@@ -20722,10 +20728,10 @@
         <v>0.88</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ95">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.46</v>
@@ -21056,7 +21062,7 @@
         <v>142</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>1.65</v>
@@ -21262,7 +21268,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>2.94</v>
@@ -21340,7 +21346,7 @@
         <v>0.89</v>
       </c>
       <c r="AP98">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ98">
         <v>1.12</v>
@@ -21674,7 +21680,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="Q100">
         <v>1.91</v>
@@ -21958,10 +21964,10 @@
         <v>1.11</v>
       </c>
       <c r="AP101">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ101">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.69</v>
@@ -22086,7 +22092,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q102">
         <v>3.75</v>
@@ -22370,7 +22376,7 @@
         <v>1.3</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ103">
         <v>1.12</v>
@@ -22498,7 +22504,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22579,7 +22585,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ104">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR104">
         <v>1.64</v>
@@ -22910,7 +22916,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23116,7 +23122,7 @@
         <v>136</v>
       </c>
       <c r="P107" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>2.56</v>
@@ -23197,7 +23203,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ107">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.6</v>
@@ -23734,7 +23740,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23812,7 +23818,7 @@
         <v>1.1</v>
       </c>
       <c r="AP110">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ110">
         <v>1.12</v>
@@ -23940,7 +23946,7 @@
         <v>83</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>4.5</v>
@@ -24021,7 +24027,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ111">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR111">
         <v>1.33</v>
@@ -24224,7 +24230,7 @@
         <v>1.18</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ112">
         <v>1.35</v>
@@ -24352,7 +24358,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24430,7 +24436,7 @@
         <v>2.45</v>
       </c>
       <c r="AP113">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ113">
         <v>2.18</v>
@@ -25176,7 +25182,7 @@
         <v>143</v>
       </c>
       <c r="P117" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25460,7 +25466,7 @@
         <v>1.08</v>
       </c>
       <c r="AP118">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ118">
         <v>1.12</v>
@@ -25588,7 +25594,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>2.2</v>
@@ -26081,7 +26087,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ121">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.43</v>
@@ -26490,7 +26496,7 @@
         <v>1.36</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ123">
         <v>1.06</v>
@@ -26618,7 +26624,7 @@
         <v>155</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>6.09</v>
@@ -26699,7 +26705,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ124">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR124">
         <v>1.13</v>
@@ -26824,7 +26830,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27442,7 +27448,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -27729,7 +27735,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ129">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -27932,10 +27938,10 @@
         <v>1.17</v>
       </c>
       <c r="AP130">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ130">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.47</v>
@@ -28138,7 +28144,7 @@
         <v>1.18</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ131">
         <v>1.24</v>
@@ -28266,7 +28272,7 @@
         <v>162</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q132">
         <v>1.73</v>
@@ -28550,7 +28556,7 @@
         <v>1.73</v>
       </c>
       <c r="AP133">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ133">
         <v>1.29</v>
@@ -28678,7 +28684,7 @@
         <v>164</v>
       </c>
       <c r="P134" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q134">
         <v>2.4</v>
@@ -28962,7 +28968,7 @@
         <v>1.31</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ135">
         <v>1.12</v>
@@ -29168,7 +29174,7 @@
         <v>1.15</v>
       </c>
       <c r="AP136">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ136">
         <v>1.06</v>
@@ -29296,7 +29302,7 @@
         <v>167</v>
       </c>
       <c r="P137" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29374,7 +29380,7 @@
         <v>1.08</v>
       </c>
       <c r="AP137">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137">
         <v>1.24</v>
@@ -29502,7 +29508,7 @@
         <v>168</v>
       </c>
       <c r="P138" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>2.05</v>
@@ -29708,7 +29714,7 @@
         <v>169</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>1.58</v>
@@ -29789,7 +29795,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ139">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.81</v>
@@ -29914,7 +29920,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -30120,7 +30126,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30198,10 +30204,10 @@
         <v>2.07</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ141">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR141">
         <v>1.55</v>
@@ -30326,7 +30332,7 @@
         <v>136</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30532,7 +30538,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>6.08</v>
@@ -30738,7 +30744,7 @@
         <v>116</v>
       </c>
       <c r="P144" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31022,7 +31028,7 @@
         <v>1.21</v>
       </c>
       <c r="AP145">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ145">
         <v>1.24</v>
@@ -31356,7 +31362,7 @@
         <v>83</v>
       </c>
       <c r="P147" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31434,7 +31440,7 @@
         <v>0.93</v>
       </c>
       <c r="AP147">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ147">
         <v>0.9399999999999999</v>
@@ -31562,7 +31568,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>1.8</v>
@@ -31768,7 +31774,7 @@
         <v>175</v>
       </c>
       <c r="P149" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q149">
         <v>2.11</v>
@@ -31849,7 +31855,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.51</v>
@@ -31974,7 +31980,7 @@
         <v>176</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -32052,7 +32058,7 @@
         <v>2.27</v>
       </c>
       <c r="AP150">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ150">
         <v>2.18</v>
@@ -32180,7 +32186,7 @@
         <v>126</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32386,7 +32392,7 @@
         <v>177</v>
       </c>
       <c r="P152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q152">
         <v>3.49</v>
@@ -32592,7 +32598,7 @@
         <v>178</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q153">
         <v>5</v>
@@ -32670,10 +32676,10 @@
         <v>2.13</v>
       </c>
       <c r="AP153">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ153">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR153">
         <v>1.54</v>
@@ -32798,7 +32804,7 @@
         <v>112</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q154">
         <v>4.03</v>
@@ -33004,7 +33010,7 @@
         <v>106</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33288,7 +33294,7 @@
         <v>1.4</v>
       </c>
       <c r="AP156">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ156">
         <v>1.29</v>
@@ -33416,7 +33422,7 @@
         <v>179</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33703,7 +33709,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ158">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>2.09</v>
@@ -33906,7 +33912,7 @@
         <v>1.07</v>
       </c>
       <c r="AP159">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ159">
         <v>0.9399999999999999</v>
@@ -34034,7 +34040,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q160">
         <v>1.67</v>
@@ -34730,7 +34736,7 @@
         <v>1.38</v>
       </c>
       <c r="AP163">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ163">
         <v>1.35</v>
@@ -34939,7 +34945,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ164">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR164">
         <v>2.05</v>
@@ -35064,7 +35070,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35142,7 +35148,7 @@
         <v>1.31</v>
       </c>
       <c r="AP165">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ165">
         <v>1.29</v>
@@ -35351,7 +35357,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ166">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR166">
         <v>1.19</v>
@@ -35476,7 +35482,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35888,7 +35894,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q169">
         <v>2.63</v>
@@ -35966,7 +35972,7 @@
         <v>2.31</v>
       </c>
       <c r="AP169">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ169">
         <v>2.18</v>
@@ -36457,6 +36463,624 @@
       </c>
       <c r="BP171">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>6575231</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="F172">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>79</v>
+      </c>
+      <c r="H172" t="s">
+        <v>74</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>4</v>
+      </c>
+      <c r="K172">
+        <v>4</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>4</v>
+      </c>
+      <c r="N172">
+        <v>5</v>
+      </c>
+      <c r="O172" t="s">
+        <v>158</v>
+      </c>
+      <c r="P172" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q172">
+        <v>2.75</v>
+      </c>
+      <c r="R172">
+        <v>2.25</v>
+      </c>
+      <c r="S172">
+        <v>3.25</v>
+      </c>
+      <c r="T172">
+        <v>1.3</v>
+      </c>
+      <c r="U172">
+        <v>3.2</v>
+      </c>
+      <c r="V172">
+        <v>2.36</v>
+      </c>
+      <c r="W172">
+        <v>1.54</v>
+      </c>
+      <c r="X172">
+        <v>5.5</v>
+      </c>
+      <c r="Y172">
+        <v>1.12</v>
+      </c>
+      <c r="Z172">
+        <v>2.16</v>
+      </c>
+      <c r="AA172">
+        <v>3.57</v>
+      </c>
+      <c r="AB172">
+        <v>2.95</v>
+      </c>
+      <c r="AC172">
+        <v>1.04</v>
+      </c>
+      <c r="AD172">
+        <v>9.5</v>
+      </c>
+      <c r="AE172">
+        <v>1.18</v>
+      </c>
+      <c r="AF172">
+        <v>4.5</v>
+      </c>
+      <c r="AG172">
+        <v>1.61</v>
+      </c>
+      <c r="AH172">
+        <v>2.15</v>
+      </c>
+      <c r="AI172">
+        <v>1.52</v>
+      </c>
+      <c r="AJ172">
+        <v>2.45</v>
+      </c>
+      <c r="AK172">
+        <v>1.38</v>
+      </c>
+      <c r="AL172">
+        <v>1.25</v>
+      </c>
+      <c r="AM172">
+        <v>1.62</v>
+      </c>
+      <c r="AN172">
+        <v>1</v>
+      </c>
+      <c r="AO172">
+        <v>0.88</v>
+      </c>
+      <c r="AP172">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>1.57</v>
+      </c>
+      <c r="AS172">
+        <v>1.21</v>
+      </c>
+      <c r="AT172">
+        <v>2.78</v>
+      </c>
+      <c r="AU172">
+        <v>9</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>15</v>
+      </c>
+      <c r="AX172">
+        <v>4</v>
+      </c>
+      <c r="AY172">
+        <v>24</v>
+      </c>
+      <c r="AZ172">
+        <v>10</v>
+      </c>
+      <c r="BA172">
+        <v>8</v>
+      </c>
+      <c r="BB172">
+        <v>3</v>
+      </c>
+      <c r="BC172">
+        <v>11</v>
+      </c>
+      <c r="BD172">
+        <v>1.47</v>
+      </c>
+      <c r="BE172">
+        <v>9.4</v>
+      </c>
+      <c r="BF172">
+        <v>3.02</v>
+      </c>
+      <c r="BG172">
+        <v>0</v>
+      </c>
+      <c r="BH172">
+        <v>0</v>
+      </c>
+      <c r="BI172">
+        <v>1.38</v>
+      </c>
+      <c r="BJ172">
+        <v>2.8</v>
+      </c>
+      <c r="BK172">
+        <v>1.65</v>
+      </c>
+      <c r="BL172">
+        <v>2.2</v>
+      </c>
+      <c r="BM172">
+        <v>2.05</v>
+      </c>
+      <c r="BN172">
+        <v>1.75</v>
+      </c>
+      <c r="BO172">
+        <v>2.6</v>
+      </c>
+      <c r="BP172">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>6575230</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45423.52083333334</v>
+      </c>
+      <c r="F173">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s">
+        <v>76</v>
+      </c>
+      <c r="H173" t="s">
+        <v>73</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>191</v>
+      </c>
+      <c r="P173" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q173">
+        <v>3.1</v>
+      </c>
+      <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>3</v>
+      </c>
+      <c r="T173">
+        <v>1.33</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
+      <c r="V173">
+        <v>2.5</v>
+      </c>
+      <c r="W173">
+        <v>1.48</v>
+      </c>
+      <c r="X173">
+        <v>6</v>
+      </c>
+      <c r="Y173">
+        <v>1.1</v>
+      </c>
+      <c r="Z173">
+        <v>2.63</v>
+      </c>
+      <c r="AA173">
+        <v>3.36</v>
+      </c>
+      <c r="AB173">
+        <v>2.48</v>
+      </c>
+      <c r="AC173">
+        <v>1.04</v>
+      </c>
+      <c r="AD173">
+        <v>9</v>
+      </c>
+      <c r="AE173">
+        <v>1.22</v>
+      </c>
+      <c r="AF173">
+        <v>4</v>
+      </c>
+      <c r="AG173">
+        <v>1.73</v>
+      </c>
+      <c r="AH173">
+        <v>2</v>
+      </c>
+      <c r="AI173">
+        <v>1.55</v>
+      </c>
+      <c r="AJ173">
+        <v>2.35</v>
+      </c>
+      <c r="AK173">
+        <v>1.52</v>
+      </c>
+      <c r="AL173">
+        <v>1.25</v>
+      </c>
+      <c r="AM173">
+        <v>1.45</v>
+      </c>
+      <c r="AN173">
+        <v>1.18</v>
+      </c>
+      <c r="AO173">
+        <v>1.06</v>
+      </c>
+      <c r="AP173">
+        <v>1.17</v>
+      </c>
+      <c r="AQ173">
+        <v>1.06</v>
+      </c>
+      <c r="AR173">
+        <v>1.47</v>
+      </c>
+      <c r="AS173">
+        <v>1.39</v>
+      </c>
+      <c r="AT173">
+        <v>2.86</v>
+      </c>
+      <c r="AU173">
+        <v>5</v>
+      </c>
+      <c r="AV173">
+        <v>5</v>
+      </c>
+      <c r="AW173">
+        <v>7</v>
+      </c>
+      <c r="AX173">
+        <v>10</v>
+      </c>
+      <c r="AY173">
+        <v>12</v>
+      </c>
+      <c r="AZ173">
+        <v>15</v>
+      </c>
+      <c r="BA173">
+        <v>2</v>
+      </c>
+      <c r="BB173">
+        <v>7</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>0</v>
+      </c>
+      <c r="BG173">
+        <v>1.29</v>
+      </c>
+      <c r="BH173">
+        <v>3.3</v>
+      </c>
+      <c r="BI173">
+        <v>1.5</v>
+      </c>
+      <c r="BJ173">
+        <v>2.5</v>
+      </c>
+      <c r="BK173">
+        <v>1.84</v>
+      </c>
+      <c r="BL173">
+        <v>1.95</v>
+      </c>
+      <c r="BM173">
+        <v>2.3</v>
+      </c>
+      <c r="BN173">
+        <v>1.59</v>
+      </c>
+      <c r="BO173">
+        <v>2.9</v>
+      </c>
+      <c r="BP173">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>6575228</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45423.63541666666</v>
+      </c>
+      <c r="F174">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>77</v>
+      </c>
+      <c r="H174" t="s">
+        <v>75</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>192</v>
+      </c>
+      <c r="P174" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q174">
+        <v>2.6</v>
+      </c>
+      <c r="R174">
+        <v>2.3</v>
+      </c>
+      <c r="S174">
+        <v>3.4</v>
+      </c>
+      <c r="T174">
+        <v>1.28</v>
+      </c>
+      <c r="U174">
+        <v>3.3</v>
+      </c>
+      <c r="V174">
+        <v>2.36</v>
+      </c>
+      <c r="W174">
+        <v>1.54</v>
+      </c>
+      <c r="X174">
+        <v>5.5</v>
+      </c>
+      <c r="Y174">
+        <v>1.12</v>
+      </c>
+      <c r="Z174">
+        <v>1.76</v>
+      </c>
+      <c r="AA174">
+        <v>3.6</v>
+      </c>
+      <c r="AB174">
+        <v>3.65</v>
+      </c>
+      <c r="AC174">
+        <v>1.03</v>
+      </c>
+      <c r="AD174">
+        <v>12</v>
+      </c>
+      <c r="AE174">
+        <v>1.18</v>
+      </c>
+      <c r="AF174">
+        <v>4.5</v>
+      </c>
+      <c r="AG174">
+        <v>1.55</v>
+      </c>
+      <c r="AH174">
+        <v>2.29</v>
+      </c>
+      <c r="AI174">
+        <v>1.52</v>
+      </c>
+      <c r="AJ174">
+        <v>2.45</v>
+      </c>
+      <c r="AK174">
+        <v>1.33</v>
+      </c>
+      <c r="AL174">
+        <v>1.2</v>
+      </c>
+      <c r="AM174">
+        <v>1.75</v>
+      </c>
+      <c r="AN174">
+        <v>2.53</v>
+      </c>
+      <c r="AO174">
+        <v>2.06</v>
+      </c>
+      <c r="AP174">
+        <v>2.56</v>
+      </c>
+      <c r="AQ174">
+        <v>1.94</v>
+      </c>
+      <c r="AR174">
+        <v>1.85</v>
+      </c>
+      <c r="AS174">
+        <v>1.82</v>
+      </c>
+      <c r="AT174">
+        <v>3.67</v>
+      </c>
+      <c r="AU174">
+        <v>5</v>
+      </c>
+      <c r="AV174">
+        <v>5</v>
+      </c>
+      <c r="AW174">
+        <v>8</v>
+      </c>
+      <c r="AX174">
+        <v>14</v>
+      </c>
+      <c r="AY174">
+        <v>13</v>
+      </c>
+      <c r="AZ174">
+        <v>19</v>
+      </c>
+      <c r="BA174">
+        <v>5</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>7</v>
+      </c>
+      <c r="BD174">
+        <v>1.63</v>
+      </c>
+      <c r="BE174">
+        <v>8.6</v>
+      </c>
+      <c r="BF174">
+        <v>2.58</v>
+      </c>
+      <c r="BG174">
+        <v>1.36</v>
+      </c>
+      <c r="BH174">
+        <v>2.9</v>
+      </c>
+      <c r="BI174">
+        <v>1.61</v>
+      </c>
+      <c r="BJ174">
+        <v>2.27</v>
+      </c>
+      <c r="BK174">
+        <v>2</v>
+      </c>
+      <c r="BL174">
+        <v>1.79</v>
+      </c>
+      <c r="BM174">
+        <v>2.57</v>
+      </c>
+      <c r="BN174">
+        <v>1.48</v>
+      </c>
+      <c r="BO174">
+        <v>3.3</v>
+      </c>
+      <c r="BP174">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,9 @@
     <t>['15', '68']</t>
   </si>
   <si>
+    <t>['15', '74']</t>
+  </si>
+  <si>
     <t>['30', '78', '90+4']</t>
   </si>
   <si>
@@ -872,6 +875,9 @@
   </si>
   <si>
     <t>['23', '36', '42', '45+3']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1492,7 +1498,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1776,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
         <v>0.9399999999999999</v>
@@ -2110,7 +2116,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>4.4</v>
@@ -2316,7 +2322,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2934,7 +2940,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>2.97</v>
@@ -3424,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ11">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3552,7 +3558,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.15</v>
@@ -3758,7 +3764,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>2.66</v>
@@ -4248,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -4376,7 +4382,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4457,7 +4463,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ16">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR16">
         <v>1.27</v>
@@ -4582,7 +4588,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>3.2</v>
@@ -4660,10 +4666,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4788,7 +4794,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4994,7 +5000,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5200,7 +5206,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>5.8</v>
@@ -5406,7 +5412,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>4.05</v>
@@ -5612,7 +5618,7 @@
         <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5693,7 +5699,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ22">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR22">
         <v>1.41</v>
@@ -6024,7 +6030,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6230,7 +6236,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6436,7 +6442,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>3.25</v>
@@ -6720,7 +6726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6848,7 +6854,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.99</v>
@@ -6929,7 +6935,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>1.61</v>
@@ -7054,7 +7060,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7338,7 +7344,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ30">
         <v>1.35</v>
@@ -7466,7 +7472,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>3.88</v>
@@ -7672,7 +7678,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7878,7 +7884,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8084,7 +8090,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8290,7 +8296,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8496,7 +8502,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>3.6</v>
@@ -8702,7 +8708,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>2.05</v>
@@ -8908,7 +8914,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q38">
         <v>4.18</v>
@@ -8986,7 +8992,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
         <v>1.94</v>
@@ -9114,7 +9120,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9195,7 +9201,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ39">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR39">
         <v>1.49</v>
@@ -9398,7 +9404,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ40">
         <v>1.06</v>
@@ -9526,7 +9532,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9607,7 +9613,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR41">
         <v>1.55</v>
@@ -9938,7 +9944,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>1.68</v>
@@ -10016,7 +10022,7 @@
         <v>0.75</v>
       </c>
       <c r="AP43">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10144,7 +10150,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10225,7 +10231,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR44">
         <v>1.76</v>
@@ -10350,7 +10356,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>1.72</v>
@@ -10637,7 +10643,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ46">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR46">
         <v>2.13</v>
@@ -10762,7 +10768,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10840,7 +10846,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
         <v>1.12</v>
@@ -10968,7 +10974,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11174,7 +11180,7 @@
         <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11461,7 +11467,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ50">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR50">
         <v>1.49</v>
@@ -11870,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ52">
         <v>1.12</v>
@@ -12079,7 +12085,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ53">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR53">
         <v>1.74</v>
@@ -12410,7 +12416,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>1.9</v>
@@ -12822,7 +12828,7 @@
         <v>83</v>
       </c>
       <c r="P57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13028,7 +13034,7 @@
         <v>83</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13234,7 +13240,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13312,7 +13318,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ59">
         <v>1.35</v>
@@ -13440,7 +13446,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13646,7 +13652,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -13727,7 +13733,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ61">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR61">
         <v>1.16</v>
@@ -13852,7 +13858,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13930,7 +13936,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ62">
         <v>1.12</v>
@@ -14264,7 +14270,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>1.83</v>
@@ -14470,7 +14476,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>3.3</v>
@@ -14551,7 +14557,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ65">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR65">
         <v>1.44</v>
@@ -14882,7 +14888,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>4.41</v>
@@ -14963,7 +14969,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.53</v>
@@ -15294,7 +15300,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>3.88</v>
@@ -15500,7 +15506,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>2.55</v>
@@ -15578,7 +15584,7 @@
         <v>1.14</v>
       </c>
       <c r="AP70">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
         <v>1.06</v>
@@ -15784,7 +15790,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ71">
         <v>1.94</v>
@@ -15912,7 +15918,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>3.24</v>
@@ -16118,7 +16124,7 @@
         <v>116</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>2.48</v>
@@ -16324,7 +16330,7 @@
         <v>83</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>2.24</v>
@@ -16530,7 +16536,7 @@
         <v>83</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q75">
         <v>2.95</v>
@@ -16817,7 +16823,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ76">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
         <v>1.95</v>
@@ -16942,7 +16948,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>4.17</v>
@@ -17148,7 +17154,7 @@
         <v>83</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q78">
         <v>4.92</v>
@@ -17354,7 +17360,7 @@
         <v>83</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17432,7 +17438,7 @@
         <v>2.43</v>
       </c>
       <c r="AP79">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79">
         <v>2.18</v>
@@ -17766,7 +17772,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q81">
         <v>3.64</v>
@@ -17847,7 +17853,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR81">
         <v>1.4</v>
@@ -18256,10 +18262,10 @@
         <v>1.63</v>
       </c>
       <c r="AP83">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ83">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR83">
         <v>1.4</v>
@@ -18384,7 +18390,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>2.83</v>
@@ -18590,7 +18596,7 @@
         <v>83</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>4.6</v>
@@ -18796,7 +18802,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19002,7 +19008,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19414,7 +19420,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19620,7 +19626,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19826,7 +19832,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19904,7 +19910,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91">
         <v>0.9399999999999999</v>
@@ -20032,7 +20038,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20444,7 +20450,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20650,7 +20656,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>2.96</v>
@@ -20934,10 +20940,10 @@
         <v>1.88</v>
       </c>
       <c r="AP96">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ96">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR96">
         <v>1.85</v>
@@ -21062,7 +21068,7 @@
         <v>142</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>1.65</v>
@@ -21268,7 +21274,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>2.94</v>
@@ -21758,10 +21764,10 @@
         <v>1.44</v>
       </c>
       <c r="AP100">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ100">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR100">
         <v>1.75</v>
@@ -22092,7 +22098,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>3.75</v>
@@ -22173,7 +22179,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR102">
         <v>1.34</v>
@@ -22504,7 +22510,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22788,7 +22794,7 @@
         <v>2.6</v>
       </c>
       <c r="AP105">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ105">
         <v>2.18</v>
@@ -22916,7 +22922,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23122,7 +23128,7 @@
         <v>136</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q107">
         <v>2.56</v>
@@ -23612,7 +23618,7 @@
         <v>0.64</v>
       </c>
       <c r="AP109">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ109">
         <v>0.9399999999999999</v>
@@ -23740,7 +23746,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23946,7 +23952,7 @@
         <v>83</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>4.5</v>
@@ -24358,7 +24364,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24848,10 +24854,10 @@
         <v>1.8</v>
       </c>
       <c r="AP115">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR115">
         <v>1.48</v>
@@ -25057,7 +25063,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ116">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25182,7 +25188,7 @@
         <v>143</v>
       </c>
       <c r="P117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25594,7 +25600,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>2.2</v>
@@ -26084,7 +26090,7 @@
         <v>1.18</v>
       </c>
       <c r="AP121">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26290,7 +26296,7 @@
         <v>1.17</v>
       </c>
       <c r="AP122">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ122">
         <v>1.35</v>
@@ -26624,7 +26630,7 @@
         <v>155</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>6.09</v>
@@ -26830,7 +26836,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27448,7 +27454,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -27732,7 +27738,7 @@
         <v>2.15</v>
       </c>
       <c r="AP129">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ129">
         <v>1.94</v>
@@ -28147,7 +28153,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ131">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR131">
         <v>1.54</v>
@@ -28272,7 +28278,7 @@
         <v>162</v>
       </c>
       <c r="P132" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>1.73</v>
@@ -28350,7 +28356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP132">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ132">
         <v>1.06</v>
@@ -28559,7 +28565,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ133">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR133">
         <v>1.72</v>
@@ -28684,7 +28690,7 @@
         <v>164</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q134">
         <v>2.4</v>
@@ -28765,7 +28771,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ134">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR134">
         <v>1.52</v>
@@ -29302,7 +29308,7 @@
         <v>167</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29383,7 +29389,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ137">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR137">
         <v>1.52</v>
@@ -29508,7 +29514,7 @@
         <v>168</v>
       </c>
       <c r="P138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q138">
         <v>2.05</v>
@@ -29589,7 +29595,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ138">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR138">
         <v>2.12</v>
@@ -29714,7 +29720,7 @@
         <v>169</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>1.58</v>
@@ -29792,7 +29798,7 @@
         <v>1.08</v>
       </c>
       <c r="AP139">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -29920,7 +29926,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -30126,7 +30132,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30332,7 +30338,7 @@
         <v>136</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30413,7 +30419,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ142">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR142">
         <v>1.59</v>
@@ -30538,7 +30544,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>6.08</v>
@@ -30744,7 +30750,7 @@
         <v>116</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -30822,7 +30828,7 @@
         <v>0.93</v>
       </c>
       <c r="AP144">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ144">
         <v>1.12</v>
@@ -31031,7 +31037,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ145">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -31234,7 +31240,7 @@
         <v>1.21</v>
       </c>
       <c r="AP146">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ146">
         <v>1.12</v>
@@ -31362,7 +31368,7 @@
         <v>83</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31568,7 +31574,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>1.8</v>
@@ -31774,7 +31780,7 @@
         <v>175</v>
       </c>
       <c r="P149" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q149">
         <v>2.11</v>
@@ -31980,7 +31986,7 @@
         <v>176</v>
       </c>
       <c r="P150" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -32186,7 +32192,7 @@
         <v>126</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32264,7 +32270,7 @@
         <v>1.29</v>
       </c>
       <c r="AP151">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ151">
         <v>1.35</v>
@@ -32392,7 +32398,7 @@
         <v>177</v>
       </c>
       <c r="P152" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q152">
         <v>3.49</v>
@@ -32473,7 +32479,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ152">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR152">
         <v>1.19</v>
@@ -32598,7 +32604,7 @@
         <v>178</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q153">
         <v>5</v>
@@ -32804,7 +32810,7 @@
         <v>112</v>
       </c>
       <c r="P154" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q154">
         <v>4.03</v>
@@ -33010,7 +33016,7 @@
         <v>106</v>
       </c>
       <c r="P155" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33297,7 +33303,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ156">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR156">
         <v>1.52</v>
@@ -33422,7 +33428,7 @@
         <v>179</v>
       </c>
       <c r="P157" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33503,7 +33509,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ157">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR157">
         <v>1.56</v>
@@ -34040,7 +34046,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q160">
         <v>1.67</v>
@@ -34118,7 +34124,7 @@
         <v>1.07</v>
       </c>
       <c r="AP160">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ160">
         <v>1.12</v>
@@ -34530,7 +34536,7 @@
         <v>1.06</v>
       </c>
       <c r="AP162">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ162">
         <v>1.06</v>
@@ -34942,7 +34948,7 @@
         <v>2.19</v>
       </c>
       <c r="AP164">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ164">
         <v>1.94</v>
@@ -35070,7 +35076,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35151,7 +35157,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ165">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AR165">
         <v>1.57</v>
@@ -35482,7 +35488,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35894,7 +35900,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q169">
         <v>2.63</v>
@@ -36387,7 +36393,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ171">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR171">
         <v>2.11</v>
@@ -36512,7 +36518,7 @@
         <v>158</v>
       </c>
       <c r="P172" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q172">
         <v>2.75</v>
@@ -36718,7 +36724,7 @@
         <v>191</v>
       </c>
       <c r="P173" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -37081,6 +37087,418 @@
       </c>
       <c r="BP174">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>6575229</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="F175">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>78</v>
+      </c>
+      <c r="H175" t="s">
+        <v>72</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>193</v>
+      </c>
+      <c r="P175" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q175">
+        <v>2</v>
+      </c>
+      <c r="R175">
+        <v>2.38</v>
+      </c>
+      <c r="S175">
+        <v>5.5</v>
+      </c>
+      <c r="T175">
+        <v>1.3</v>
+      </c>
+      <c r="U175">
+        <v>3.2</v>
+      </c>
+      <c r="V175">
+        <v>2.45</v>
+      </c>
+      <c r="W175">
+        <v>1.48</v>
+      </c>
+      <c r="X175">
+        <v>5.5</v>
+      </c>
+      <c r="Y175">
+        <v>1.13</v>
+      </c>
+      <c r="Z175">
+        <v>1.47</v>
+      </c>
+      <c r="AA175">
+        <v>4.3</v>
+      </c>
+      <c r="AB175">
+        <v>5.75</v>
+      </c>
+      <c r="AC175">
+        <v>1.03</v>
+      </c>
+      <c r="AD175">
+        <v>10</v>
+      </c>
+      <c r="AE175">
+        <v>1.2</v>
+      </c>
+      <c r="AF175">
+        <v>4.2</v>
+      </c>
+      <c r="AG175">
+        <v>1.65</v>
+      </c>
+      <c r="AH175">
+        <v>2.1</v>
+      </c>
+      <c r="AI175">
+        <v>1.8</v>
+      </c>
+      <c r="AJ175">
+        <v>1.85</v>
+      </c>
+      <c r="AK175">
+        <v>1.08</v>
+      </c>
+      <c r="AL175">
+        <v>1.15</v>
+      </c>
+      <c r="AM175">
+        <v>2.6</v>
+      </c>
+      <c r="AN175">
+        <v>2.24</v>
+      </c>
+      <c r="AO175">
+        <v>1.29</v>
+      </c>
+      <c r="AP175">
+        <v>2.28</v>
+      </c>
+      <c r="AQ175">
+        <v>1.22</v>
+      </c>
+      <c r="AR175">
+        <v>2.01</v>
+      </c>
+      <c r="AS175">
+        <v>1.5</v>
+      </c>
+      <c r="AT175">
+        <v>3.51</v>
+      </c>
+      <c r="AU175">
+        <v>3</v>
+      </c>
+      <c r="AV175">
+        <v>6</v>
+      </c>
+      <c r="AW175">
+        <v>6</v>
+      </c>
+      <c r="AX175">
+        <v>12</v>
+      </c>
+      <c r="AY175">
+        <v>9</v>
+      </c>
+      <c r="AZ175">
+        <v>18</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>4</v>
+      </c>
+      <c r="BC175">
+        <v>7</v>
+      </c>
+      <c r="BD175">
+        <v>1.32</v>
+      </c>
+      <c r="BE175">
+        <v>10.25</v>
+      </c>
+      <c r="BF175">
+        <v>3.82</v>
+      </c>
+      <c r="BG175">
+        <v>1.2</v>
+      </c>
+      <c r="BH175">
+        <v>4</v>
+      </c>
+      <c r="BI175">
+        <v>1.36</v>
+      </c>
+      <c r="BJ175">
+        <v>2.9</v>
+      </c>
+      <c r="BK175">
+        <v>1.6</v>
+      </c>
+      <c r="BL175">
+        <v>2.29</v>
+      </c>
+      <c r="BM175">
+        <v>1.98</v>
+      </c>
+      <c r="BN175">
+        <v>1.81</v>
+      </c>
+      <c r="BO175">
+        <v>2.53</v>
+      </c>
+      <c r="BP175">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>6575232</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="F176">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>71</v>
+      </c>
+      <c r="H176" t="s">
+        <v>70</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>109</v>
+      </c>
+      <c r="P176" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q176">
+        <v>2.63</v>
+      </c>
+      <c r="R176">
+        <v>2.1</v>
+      </c>
+      <c r="S176">
+        <v>4</v>
+      </c>
+      <c r="T176">
+        <v>1.41</v>
+      </c>
+      <c r="U176">
+        <v>2.9</v>
+      </c>
+      <c r="V176">
+        <v>3.07</v>
+      </c>
+      <c r="W176">
+        <v>1.38</v>
+      </c>
+      <c r="X176">
+        <v>7.4</v>
+      </c>
+      <c r="Y176">
+        <v>1.06</v>
+      </c>
+      <c r="Z176">
+        <v>1.95</v>
+      </c>
+      <c r="AA176">
+        <v>3.39</v>
+      </c>
+      <c r="AB176">
+        <v>3.67</v>
+      </c>
+      <c r="AC176">
+        <v>1.03</v>
+      </c>
+      <c r="AD176">
+        <v>8.4</v>
+      </c>
+      <c r="AE176">
+        <v>1.31</v>
+      </c>
+      <c r="AF176">
+        <v>3.04</v>
+      </c>
+      <c r="AG176">
+        <v>2.02</v>
+      </c>
+      <c r="AH176">
+        <v>1.74</v>
+      </c>
+      <c r="AI176">
+        <v>1.8</v>
+      </c>
+      <c r="AJ176">
+        <v>1.96</v>
+      </c>
+      <c r="AK176">
+        <v>1.27</v>
+      </c>
+      <c r="AL176">
+        <v>1.28</v>
+      </c>
+      <c r="AM176">
+        <v>1.7</v>
+      </c>
+      <c r="AN176">
+        <v>1.59</v>
+      </c>
+      <c r="AO176">
+        <v>1.24</v>
+      </c>
+      <c r="AP176">
+        <v>1.56</v>
+      </c>
+      <c r="AQ176">
+        <v>1.22</v>
+      </c>
+      <c r="AR176">
+        <v>1.49</v>
+      </c>
+      <c r="AS176">
+        <v>1.27</v>
+      </c>
+      <c r="AT176">
+        <v>2.76</v>
+      </c>
+      <c r="AU176">
+        <v>9</v>
+      </c>
+      <c r="AV176">
+        <v>4</v>
+      </c>
+      <c r="AW176">
+        <v>15</v>
+      </c>
+      <c r="AX176">
+        <v>4</v>
+      </c>
+      <c r="AY176">
+        <v>24</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
+        <v>10</v>
+      </c>
+      <c r="BB176">
+        <v>2</v>
+      </c>
+      <c r="BC176">
+        <v>12</v>
+      </c>
+      <c r="BD176">
+        <v>1.44</v>
+      </c>
+      <c r="BE176">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF176">
+        <v>3.12</v>
+      </c>
+      <c r="BG176">
+        <v>1.2</v>
+      </c>
+      <c r="BH176">
+        <v>4</v>
+      </c>
+      <c r="BI176">
+        <v>1.36</v>
+      </c>
+      <c r="BJ176">
+        <v>2.9</v>
+      </c>
+      <c r="BK176">
+        <v>1.61</v>
+      </c>
+      <c r="BL176">
+        <v>2.25</v>
+      </c>
+      <c r="BM176">
+        <v>2</v>
+      </c>
+      <c r="BN176">
+        <v>1.8</v>
+      </c>
+      <c r="BO176">
+        <v>2.53</v>
+      </c>
+      <c r="BP176">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,15 @@
     <t>['15', '74']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
     <t>['30', '78', '90+4']</t>
   </si>
   <si>
@@ -668,9 +677,6 @@
   </si>
   <si>
     <t>['16']</t>
-  </si>
-  <si>
-    <t>['29']</t>
   </si>
   <si>
     <t>['32', '35']</t>
@@ -752,9 +758,6 @@
   </si>
   <si>
     <t>['14', '82']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['52', '56', '76', '90+2']</t>
@@ -878,6 +881,12 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['4', '44']</t>
+  </si>
+  <si>
+    <t>['19', '28', '32']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1498,7 +1507,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1576,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1785,7 +1794,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ3">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2116,7 +2125,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>4.4</v>
@@ -2194,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ5">
         <v>1.35</v>
@@ -2322,7 +2331,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2400,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ6">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2815,7 +2824,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ8">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2940,7 +2949,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>2.97</v>
@@ -3558,7 +3567,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>2.15</v>
@@ -3639,7 +3648,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ12">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR12">
         <v>2.57</v>
@@ -3764,7 +3773,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>2.66</v>
@@ -3842,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -4257,7 +4266,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ15">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR15">
         <v>2.34</v>
@@ -4382,7 +4391,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4588,7 +4597,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>3.2</v>
@@ -4794,7 +4803,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4872,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
@@ -5000,7 +5009,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5078,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ19">
         <v>1.94</v>
@@ -5206,7 +5215,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>5.8</v>
@@ -5412,7 +5421,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>4.05</v>
@@ -5493,7 +5502,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR21">
         <v>1.74</v>
@@ -5618,7 +5627,7 @@
         <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5696,7 +5705,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ22">
         <v>1.22</v>
@@ -5905,7 +5914,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ23">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR23">
         <v>1.63</v>
@@ -6030,7 +6039,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6111,7 +6120,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ24">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR24">
         <v>1.6</v>
@@ -6236,7 +6245,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6317,7 +6326,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ25">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR25">
         <v>2.02</v>
@@ -6442,7 +6451,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>3.25</v>
@@ -6520,7 +6529,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ26">
         <v>1.12</v>
@@ -6854,7 +6863,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>2.99</v>
@@ -7060,7 +7069,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7472,7 +7481,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>3.88</v>
@@ -7550,7 +7559,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1.94</v>
@@ -7678,7 +7687,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7756,10 +7765,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ32">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR32">
         <v>1.41</v>
@@ -7884,7 +7893,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -7962,7 +7971,7 @@
         <v>1.33</v>
       </c>
       <c r="AP33">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.12</v>
@@ -8090,7 +8099,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8296,7 +8305,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8374,10 +8383,10 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ35">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR35">
         <v>1.51</v>
@@ -8502,7 +8511,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>3.6</v>
@@ -8583,7 +8592,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ36">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR36">
         <v>1.63</v>
@@ -8708,7 +8717,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>2.05</v>
@@ -8914,7 +8923,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>4.18</v>
@@ -9120,7 +9129,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9532,7 +9541,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9944,7 +9953,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>1.68</v>
@@ -10150,7 +10159,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10356,7 +10365,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>1.72</v>
@@ -10768,7 +10777,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10849,7 +10858,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR47">
         <v>1.42</v>
@@ -10974,7 +10983,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11052,10 +11061,10 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR48">
         <v>1.24</v>
@@ -11180,7 +11189,7 @@
         <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11464,7 +11473,7 @@
         <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ50">
         <v>1.22</v>
@@ -11670,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ51">
         <v>1.35</v>
@@ -12291,7 +12300,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ54">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR54">
         <v>1.73</v>
@@ -12416,7 +12425,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>1.9</v>
@@ -12828,7 +12837,7 @@
         <v>83</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12909,7 +12918,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ57">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR57">
         <v>1.57</v>
@@ -13034,7 +13043,7 @@
         <v>83</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13240,7 +13249,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13446,7 +13455,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13524,7 +13533,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ60">
         <v>1.06</v>
@@ -13652,7 +13661,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -13730,7 +13739,7 @@
         <v>2.2</v>
       </c>
       <c r="AP61">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
         <v>1.22</v>
@@ -13858,7 +13867,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -13939,7 +13948,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ62">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR62">
         <v>1.71</v>
@@ -14270,7 +14279,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>1.83</v>
@@ -14351,7 +14360,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ64">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR64">
         <v>1.75</v>
@@ -14476,7 +14485,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q65">
         <v>3.3</v>
@@ -14554,7 +14563,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ65">
         <v>1.22</v>
@@ -14888,7 +14897,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>4.41</v>
@@ -15172,7 +15181,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15300,7 +15309,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>3.88</v>
@@ -15506,7 +15515,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>2.55</v>
@@ -15918,7 +15927,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>3.24</v>
@@ -15996,7 +16005,7 @@
         <v>0.86</v>
       </c>
       <c r="AP72">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ72">
         <v>1.12</v>
@@ -16124,7 +16133,7 @@
         <v>116</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>2.48</v>
@@ -16202,10 +16211,10 @@
         <v>0.43</v>
       </c>
       <c r="AP73">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ73">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR73">
         <v>1.55</v>
@@ -16330,7 +16339,7 @@
         <v>83</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>2.24</v>
@@ -16411,7 +16420,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ74">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR74">
         <v>1.49</v>
@@ -16536,7 +16545,7 @@
         <v>83</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>2.95</v>
@@ -16617,7 +16626,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ75">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR75">
         <v>1.81</v>
@@ -16948,7 +16957,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>4.17</v>
@@ -17029,7 +17038,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ77">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR77">
         <v>1.49</v>
@@ -17154,7 +17163,7 @@
         <v>83</v>
       </c>
       <c r="P78" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>4.92</v>
@@ -17232,7 +17241,7 @@
         <v>2.14</v>
       </c>
       <c r="AP78">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ78">
         <v>1.94</v>
@@ -17360,7 +17369,7 @@
         <v>83</v>
       </c>
       <c r="P79" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17441,7 +17450,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ79">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17644,7 +17653,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>1.35</v>
@@ -17772,7 +17781,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q81">
         <v>3.64</v>
@@ -17850,7 +17859,7 @@
         <v>2.14</v>
       </c>
       <c r="AP81">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ81">
         <v>1.22</v>
@@ -18390,7 +18399,7 @@
         <v>133</v>
       </c>
       <c r="P84" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>2.83</v>
@@ -18596,7 +18605,7 @@
         <v>83</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>4.6</v>
@@ -18674,10 +18683,10 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ85">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR85">
         <v>1.59</v>
@@ -18802,7 +18811,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -18880,10 +18889,10 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ86">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR86">
         <v>1.38</v>
@@ -19008,7 +19017,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19292,10 +19301,10 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
+        <v>1</v>
+      </c>
+      <c r="AQ88">
         <v>1.06</v>
-      </c>
-      <c r="AQ88">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AR88">
         <v>1.17</v>
@@ -19420,7 +19429,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19626,7 +19635,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19704,10 +19713,10 @@
         <v>2.56</v>
       </c>
       <c r="AP90">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ90">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR90">
         <v>1.37</v>
@@ -19832,7 +19841,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19913,7 +19922,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR91">
         <v>1.44</v>
@@ -20038,7 +20047,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20322,10 +20331,10 @@
         <v>1.44</v>
       </c>
       <c r="AP93">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20450,7 +20459,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20528,7 +20537,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ94">
         <v>1.35</v>
@@ -20656,7 +20665,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>2.96</v>
@@ -21068,7 +21077,7 @@
         <v>142</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>1.65</v>
@@ -21149,7 +21158,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ97">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR97">
         <v>2.13</v>
@@ -21274,7 +21283,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q98">
         <v>2.94</v>
@@ -22098,7 +22107,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q102">
         <v>3.75</v>
@@ -22176,7 +22185,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ102">
         <v>1.22</v>
@@ -22385,7 +22394,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ103">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR103">
         <v>1.51</v>
@@ -22510,7 +22519,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22588,7 +22597,7 @@
         <v>2.1</v>
       </c>
       <c r="AP104">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ104">
         <v>1.94</v>
@@ -22797,7 +22806,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ105">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR105">
         <v>1.52</v>
@@ -22922,7 +22931,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23000,7 +23009,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>1.35</v>
@@ -23128,7 +23137,7 @@
         <v>136</v>
       </c>
       <c r="P107" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q107">
         <v>2.56</v>
@@ -23206,7 +23215,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23415,7 +23424,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ108">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR108">
         <v>2.1</v>
@@ -23621,7 +23630,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ109">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR109">
         <v>1.81</v>
@@ -23746,7 +23755,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23952,7 +23961,7 @@
         <v>83</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>4.5</v>
@@ -24030,7 +24039,7 @@
         <v>2.18</v>
       </c>
       <c r="AP111">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ111">
         <v>1.94</v>
@@ -24364,7 +24373,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -24445,7 +24454,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ113">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR113">
         <v>1.5</v>
@@ -24648,7 +24657,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ114">
         <v>1.06</v>
@@ -25060,7 +25069,7 @@
         <v>1.3</v>
       </c>
       <c r="AP116">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ116">
         <v>1.22</v>
@@ -25188,7 +25197,7 @@
         <v>143</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25269,7 +25278,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ117">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR117">
         <v>2.08</v>
@@ -25475,7 +25484,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ118">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR118">
         <v>1.76</v>
@@ -25600,7 +25609,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>2.2</v>
@@ -25681,7 +25690,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -25884,7 +25893,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ120">
         <v>1.12</v>
@@ -26630,7 +26639,7 @@
         <v>155</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>6.09</v>
@@ -26708,7 +26717,7 @@
         <v>2.25</v>
       </c>
       <c r="AP124">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>1.94</v>
@@ -26836,7 +26845,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -26914,7 +26923,7 @@
         <v>1.17</v>
       </c>
       <c r="AP125">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
         <v>1.12</v>
@@ -27120,10 +27129,10 @@
         <v>0.77</v>
       </c>
       <c r="AP126">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ126">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27326,10 +27335,10 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ127">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27454,7 +27463,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -27535,7 +27544,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ128">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR128">
         <v>1.54</v>
@@ -28278,7 +28287,7 @@
         <v>162</v>
       </c>
       <c r="P132" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q132">
         <v>1.73</v>
@@ -28690,7 +28699,7 @@
         <v>164</v>
       </c>
       <c r="P134" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="Q134">
         <v>2.4</v>
@@ -29308,7 +29317,7 @@
         <v>167</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29514,7 +29523,7 @@
         <v>168</v>
       </c>
       <c r="P138" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>2.05</v>
@@ -29720,7 +29729,7 @@
         <v>169</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>1.58</v>
@@ -29926,7 +29935,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -30004,7 +30013,7 @@
         <v>1.15</v>
       </c>
       <c r="AP140">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ140">
         <v>1.35</v>
@@ -30132,7 +30141,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30338,7 +30347,7 @@
         <v>136</v>
       </c>
       <c r="P142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30416,7 +30425,7 @@
         <v>1.46</v>
       </c>
       <c r="AP142">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ142">
         <v>1.22</v>
@@ -30544,7 +30553,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>6.08</v>
@@ -30622,10 +30631,10 @@
         <v>2.21</v>
       </c>
       <c r="AP143">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR143">
         <v>1.13</v>
@@ -30750,7 +30759,7 @@
         <v>116</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -30831,7 +30840,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ144">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR144">
         <v>1.49</v>
@@ -31368,7 +31377,7 @@
         <v>83</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31449,7 +31458,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ147">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR147">
         <v>1.55</v>
@@ -31574,7 +31583,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q148">
         <v>1.8</v>
@@ -31780,7 +31789,7 @@
         <v>175</v>
       </c>
       <c r="P149" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q149">
         <v>2.11</v>
@@ -31986,7 +31995,7 @@
         <v>176</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -32067,7 +32076,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ150">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR150">
         <v>1.55</v>
@@ -32192,7 +32201,7 @@
         <v>126</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32398,7 +32407,7 @@
         <v>177</v>
       </c>
       <c r="P152" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q152">
         <v>3.49</v>
@@ -32476,7 +32485,7 @@
         <v>1.43</v>
       </c>
       <c r="AP152">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ152">
         <v>1.22</v>
@@ -32604,7 +32613,7 @@
         <v>178</v>
       </c>
       <c r="P153" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q153">
         <v>5</v>
@@ -32810,7 +32819,7 @@
         <v>112</v>
       </c>
       <c r="P154" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q154">
         <v>4.03</v>
@@ -32888,7 +32897,7 @@
         <v>1.07</v>
       </c>
       <c r="AP154">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ154">
         <v>1.06</v>
@@ -33016,7 +33025,7 @@
         <v>106</v>
       </c>
       <c r="P155" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33428,7 +33437,7 @@
         <v>179</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33506,7 +33515,7 @@
         <v>1.13</v>
       </c>
       <c r="AP157">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ157">
         <v>1.22</v>
@@ -33921,7 +33930,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ159">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR159">
         <v>1.83</v>
@@ -34046,7 +34055,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>1.67</v>
@@ -34127,7 +34136,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ160">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR160">
         <v>2.03</v>
@@ -35076,7 +35085,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35360,7 +35369,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP166">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ166">
         <v>1</v>
@@ -35488,7 +35497,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35566,7 +35575,7 @@
         <v>1.13</v>
       </c>
       <c r="AP167">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AQ167">
         <v>1.12</v>
@@ -35775,7 +35784,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR168">
         <v>1.56</v>
@@ -35900,7 +35909,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q169">
         <v>2.63</v>
@@ -35981,7 +35990,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ169">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AR169">
         <v>1.86</v>
@@ -36184,10 +36193,10 @@
         <v>1</v>
       </c>
       <c r="AP170">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ170">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR170">
         <v>1.57</v>
@@ -36518,7 +36527,7 @@
         <v>158</v>
       </c>
       <c r="P172" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q172">
         <v>2.75</v>
@@ -36724,7 +36733,7 @@
         <v>191</v>
       </c>
       <c r="P173" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -37342,7 +37351,7 @@
         <v>109</v>
       </c>
       <c r="P176" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37499,6 +37508,624 @@
       </c>
       <c r="BP176">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>6575234</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="F177">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>70</v>
+      </c>
+      <c r="H177" t="s">
+        <v>79</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>2</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>194</v>
+      </c>
+      <c r="P177" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q177">
+        <v>3.25</v>
+      </c>
+      <c r="R177">
+        <v>2.2</v>
+      </c>
+      <c r="S177">
+        <v>2.88</v>
+      </c>
+      <c r="T177">
+        <v>1.36</v>
+      </c>
+      <c r="U177">
+        <v>2.9</v>
+      </c>
+      <c r="V177">
+        <v>2.62</v>
+      </c>
+      <c r="W177">
+        <v>1.42</v>
+      </c>
+      <c r="X177">
+        <v>6</v>
+      </c>
+      <c r="Y177">
+        <v>1.09</v>
+      </c>
+      <c r="Z177">
+        <v>3.25</v>
+      </c>
+      <c r="AA177">
+        <v>3.4</v>
+      </c>
+      <c r="AB177">
+        <v>1.92</v>
+      </c>
+      <c r="AC177">
+        <v>1.02</v>
+      </c>
+      <c r="AD177">
+        <v>10</v>
+      </c>
+      <c r="AE177">
+        <v>1.25</v>
+      </c>
+      <c r="AF177">
+        <v>3.6</v>
+      </c>
+      <c r="AG177">
+        <v>1.78</v>
+      </c>
+      <c r="AH177">
+        <v>1.98</v>
+      </c>
+      <c r="AI177">
+        <v>1.65</v>
+      </c>
+      <c r="AJ177">
+        <v>2.1</v>
+      </c>
+      <c r="AK177">
+        <v>1.65</v>
+      </c>
+      <c r="AL177">
+        <v>1.29</v>
+      </c>
+      <c r="AM177">
+        <v>1.4</v>
+      </c>
+      <c r="AN177">
+        <v>1.06</v>
+      </c>
+      <c r="AO177">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP177">
+        <v>1</v>
+      </c>
+      <c r="AQ177">
+        <v>1.06</v>
+      </c>
+      <c r="AR177">
+        <v>1.23</v>
+      </c>
+      <c r="AS177">
+        <v>1.23</v>
+      </c>
+      <c r="AT177">
+        <v>2.46</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>10</v>
+      </c>
+      <c r="AW177">
+        <v>2</v>
+      </c>
+      <c r="AX177">
+        <v>6</v>
+      </c>
+      <c r="AY177">
+        <v>5</v>
+      </c>
+      <c r="AZ177">
+        <v>16</v>
+      </c>
+      <c r="BA177">
+        <v>3</v>
+      </c>
+      <c r="BB177">
+        <v>2</v>
+      </c>
+      <c r="BC177">
+        <v>5</v>
+      </c>
+      <c r="BD177">
+        <v>2.08</v>
+      </c>
+      <c r="BE177">
+        <v>8.6</v>
+      </c>
+      <c r="BF177">
+        <v>1.92</v>
+      </c>
+      <c r="BG177">
+        <v>1.25</v>
+      </c>
+      <c r="BH177">
+        <v>3.6</v>
+      </c>
+      <c r="BI177">
+        <v>1.42</v>
+      </c>
+      <c r="BJ177">
+        <v>2.62</v>
+      </c>
+      <c r="BK177">
+        <v>1.73</v>
+      </c>
+      <c r="BL177">
+        <v>2.08</v>
+      </c>
+      <c r="BM177">
+        <v>2.15</v>
+      </c>
+      <c r="BN177">
+        <v>1.68</v>
+      </c>
+      <c r="BO177">
+        <v>2.62</v>
+      </c>
+      <c r="BP177">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>6575235</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="F178">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
+        <v>74</v>
+      </c>
+      <c r="H178" t="s">
+        <v>76</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>3</v>
+      </c>
+      <c r="K178">
+        <v>3</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>195</v>
+      </c>
+      <c r="P178" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q178">
+        <v>2.75</v>
+      </c>
+      <c r="R178">
+        <v>2.25</v>
+      </c>
+      <c r="S178">
+        <v>3.25</v>
+      </c>
+      <c r="T178">
+        <v>1.3</v>
+      </c>
+      <c r="U178">
+        <v>3.2</v>
+      </c>
+      <c r="V178">
+        <v>2.4</v>
+      </c>
+      <c r="W178">
+        <v>1.5</v>
+      </c>
+      <c r="X178">
+        <v>5.5</v>
+      </c>
+      <c r="Y178">
+        <v>1.11</v>
+      </c>
+      <c r="Z178">
+        <v>1.63</v>
+      </c>
+      <c r="AA178">
+        <v>4.22</v>
+      </c>
+      <c r="AB178">
+        <v>4.6</v>
+      </c>
+      <c r="AC178">
+        <v>1.01</v>
+      </c>
+      <c r="AD178">
+        <v>11</v>
+      </c>
+      <c r="AE178">
+        <v>1.2</v>
+      </c>
+      <c r="AF178">
+        <v>4</v>
+      </c>
+      <c r="AG178">
+        <v>1.65</v>
+      </c>
+      <c r="AH178">
+        <v>2.1</v>
+      </c>
+      <c r="AI178">
+        <v>1.57</v>
+      </c>
+      <c r="AJ178">
+        <v>2.25</v>
+      </c>
+      <c r="AK178">
+        <v>1.4</v>
+      </c>
+      <c r="AL178">
+        <v>1.29</v>
+      </c>
+      <c r="AM178">
+        <v>1.65</v>
+      </c>
+      <c r="AN178">
+        <v>0.76</v>
+      </c>
+      <c r="AO178">
+        <v>1.12</v>
+      </c>
+      <c r="AP178">
+        <v>0.72</v>
+      </c>
+      <c r="AQ178">
+        <v>1.22</v>
+      </c>
+      <c r="AR178">
+        <v>1.33</v>
+      </c>
+      <c r="AS178">
+        <v>1.42</v>
+      </c>
+      <c r="AT178">
+        <v>2.75</v>
+      </c>
+      <c r="AU178">
+        <v>9</v>
+      </c>
+      <c r="AV178">
+        <v>11</v>
+      </c>
+      <c r="AW178">
+        <v>9</v>
+      </c>
+      <c r="AX178">
+        <v>10</v>
+      </c>
+      <c r="AY178">
+        <v>18</v>
+      </c>
+      <c r="AZ178">
+        <v>21</v>
+      </c>
+      <c r="BA178">
+        <v>8</v>
+      </c>
+      <c r="BB178">
+        <v>3</v>
+      </c>
+      <c r="BC178">
+        <v>11</v>
+      </c>
+      <c r="BD178">
+        <v>1.34</v>
+      </c>
+      <c r="BE178">
+        <v>9.9</v>
+      </c>
+      <c r="BF178">
+        <v>3.7</v>
+      </c>
+      <c r="BG178">
+        <v>0</v>
+      </c>
+      <c r="BH178">
+        <v>0</v>
+      </c>
+      <c r="BI178">
+        <v>1.41</v>
+      </c>
+      <c r="BJ178">
+        <v>2.6</v>
+      </c>
+      <c r="BK178">
+        <v>1.77</v>
+      </c>
+      <c r="BL178">
+        <v>2.01</v>
+      </c>
+      <c r="BM178">
+        <v>2.23</v>
+      </c>
+      <c r="BN178">
+        <v>1.62</v>
+      </c>
+      <c r="BO178">
+        <v>0</v>
+      </c>
+      <c r="BP178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>6575236</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="F179">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>73</v>
+      </c>
+      <c r="H179" t="s">
+        <v>78</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>196</v>
+      </c>
+      <c r="P179" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q179">
+        <v>4</v>
+      </c>
+      <c r="R179">
+        <v>2.2</v>
+      </c>
+      <c r="S179">
+        <v>2.5</v>
+      </c>
+      <c r="T179">
+        <v>1.33</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179">
+        <v>2.6</v>
+      </c>
+      <c r="W179">
+        <v>1.44</v>
+      </c>
+      <c r="X179">
+        <v>6</v>
+      </c>
+      <c r="Y179">
+        <v>1.09</v>
+      </c>
+      <c r="Z179">
+        <v>3.46</v>
+      </c>
+      <c r="AA179">
+        <v>3.79</v>
+      </c>
+      <c r="AB179">
+        <v>1.89</v>
+      </c>
+      <c r="AC179">
+        <v>1.02</v>
+      </c>
+      <c r="AD179">
+        <v>10</v>
+      </c>
+      <c r="AE179">
+        <v>1.25</v>
+      </c>
+      <c r="AF179">
+        <v>3.6</v>
+      </c>
+      <c r="AG179">
+        <v>1.83</v>
+      </c>
+      <c r="AH179">
+        <v>1.93</v>
+      </c>
+      <c r="AI179">
+        <v>1.7</v>
+      </c>
+      <c r="AJ179">
+        <v>2.05</v>
+      </c>
+      <c r="AK179">
+        <v>1.83</v>
+      </c>
+      <c r="AL179">
+        <v>1.25</v>
+      </c>
+      <c r="AM179">
+        <v>1.33</v>
+      </c>
+      <c r="AN179">
+        <v>0.76</v>
+      </c>
+      <c r="AO179">
+        <v>2.18</v>
+      </c>
+      <c r="AP179">
+        <v>0.78</v>
+      </c>
+      <c r="AQ179">
+        <v>2.11</v>
+      </c>
+      <c r="AR179">
+        <v>1.55</v>
+      </c>
+      <c r="AS179">
+        <v>1.79</v>
+      </c>
+      <c r="AT179">
+        <v>3.34</v>
+      </c>
+      <c r="AU179">
+        <v>5</v>
+      </c>
+      <c r="AV179">
+        <v>7</v>
+      </c>
+      <c r="AW179">
+        <v>7</v>
+      </c>
+      <c r="AX179">
+        <v>15</v>
+      </c>
+      <c r="AY179">
+        <v>12</v>
+      </c>
+      <c r="AZ179">
+        <v>22</v>
+      </c>
+      <c r="BA179">
+        <v>4</v>
+      </c>
+      <c r="BB179">
+        <v>10</v>
+      </c>
+      <c r="BC179">
+        <v>14</v>
+      </c>
+      <c r="BD179">
+        <v>2.58</v>
+      </c>
+      <c r="BE179">
+        <v>9</v>
+      </c>
+      <c r="BF179">
+        <v>1.62</v>
+      </c>
+      <c r="BG179">
+        <v>1.25</v>
+      </c>
+      <c r="BH179">
+        <v>3.6</v>
+      </c>
+      <c r="BI179">
+        <v>1.42</v>
+      </c>
+      <c r="BJ179">
+        <v>2.62</v>
+      </c>
+      <c r="BK179">
+        <v>1.72</v>
+      </c>
+      <c r="BL179">
+        <v>2.07</v>
+      </c>
+      <c r="BM179">
+        <v>2.13</v>
+      </c>
+      <c r="BN179">
+        <v>1.68</v>
+      </c>
+      <c r="BO179">
+        <v>2.62</v>
+      </c>
+      <c r="BP179">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
@@ -37653,19 +37653,19 @@
         <v>3</v>
       </c>
       <c r="AV177">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AW177">
         <v>2</v>
       </c>
       <c r="AX177">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY177">
         <v>5</v>
       </c>
       <c r="AZ177">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA177">
         <v>3</v>
@@ -37856,22 +37856,22 @@
         <v>2.75</v>
       </c>
       <c r="AU178">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV178">
+        <v>7</v>
+      </c>
+      <c r="AW178">
+        <v>6</v>
+      </c>
+      <c r="AX178">
+        <v>6</v>
+      </c>
+      <c r="AY178">
         <v>11</v>
       </c>
-      <c r="AW178">
-        <v>9</v>
-      </c>
-      <c r="AX178">
-        <v>10</v>
-      </c>
-      <c r="AY178">
-        <v>18</v>
-      </c>
       <c r="AZ178">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="BA178">
         <v>8</v>
@@ -38065,19 +38065,19 @@
         <v>5</v>
       </c>
       <c r="AV179">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW179">
         <v>7</v>
       </c>
       <c r="AX179">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AY179">
         <v>12</v>
       </c>
       <c r="AZ179">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="BA179">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,9 @@
     <t>['29']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['30', '78', '90+4']</t>
   </si>
   <si>
@@ -887,6 +890,9 @@
   </si>
   <si>
     <t>['19', '28', '32']</t>
+  </si>
+  <si>
+    <t>['42']</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1507,7 +1513,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1997,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ4">
         <v>1.94</v>
@@ -2125,7 +2131,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>4.4</v>
@@ -2206,7 +2212,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ5">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2331,7 +2337,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2615,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ7">
         <v>1.06</v>
@@ -2821,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ8">
         <v>1.06</v>
@@ -2949,7 +2955,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>2.97</v>
@@ -3030,7 +3036,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ9">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3567,7 +3573,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>2.15</v>
@@ -3645,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ12">
         <v>1.22</v>
@@ -3773,7 +3779,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>2.66</v>
@@ -4060,7 +4066,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ14">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR14">
         <v>1.51</v>
@@ -4391,7 +4397,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4469,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ16">
         <v>1.22</v>
@@ -4597,7 +4603,7 @@
         <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>3.2</v>
@@ -4803,7 +4809,7 @@
         <v>83</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -5009,7 +5015,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>4.33</v>
@@ -5215,7 +5221,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>5.8</v>
@@ -5296,7 +5302,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ20">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5421,7 +5427,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>4.05</v>
@@ -5627,7 +5633,7 @@
         <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5911,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23">
         <v>1.06</v>
@@ -6039,7 +6045,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6245,7 +6251,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6323,7 +6329,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ25">
         <v>2.11</v>
@@ -6451,7 +6457,7 @@
         <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>3.25</v>
@@ -6532,7 +6538,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ26">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR26">
         <v>1.16</v>
@@ -6863,7 +6869,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>2.99</v>
@@ -7069,7 +7075,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7356,7 +7362,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ30">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>2.14</v>
@@ -7481,7 +7487,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>3.88</v>
@@ -7687,7 +7693,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>2.63</v>
@@ -7893,7 +7899,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -7974,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR33">
         <v>1.3</v>
@@ -8099,7 +8105,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8177,10 +8183,10 @@
         <v>1.33</v>
       </c>
       <c r="AP34">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ34">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>2.07</v>
@@ -8305,7 +8311,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8511,7 +8517,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>3.6</v>
@@ -8589,7 +8595,7 @@
         <v>2.33</v>
       </c>
       <c r="AP36">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ36">
         <v>2.11</v>
@@ -8923,7 +8929,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>4.18</v>
@@ -9129,7 +9135,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9541,7 +9547,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>2.38</v>
@@ -9828,7 +9834,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ42">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR42">
         <v>1.6</v>
@@ -9953,7 +9959,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>1.68</v>
@@ -10159,7 +10165,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10365,7 +10371,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>1.72</v>
@@ -10649,7 +10655,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ46">
         <v>1.22</v>
@@ -10777,7 +10783,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10983,7 +10989,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11189,7 +11195,7 @@
         <v>83</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11682,7 +11688,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ51">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -11888,7 +11894,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ52">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR52">
         <v>1.71</v>
@@ -12425,7 +12431,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>1.9</v>
@@ -12503,7 +12509,7 @@
         <v>0.8</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ55">
         <v>1.06</v>
@@ -12709,7 +12715,7 @@
         <v>1.2</v>
       </c>
       <c r="AP56">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12837,7 +12843,7 @@
         <v>83</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13043,7 +13049,7 @@
         <v>83</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -13249,7 +13255,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13330,7 +13336,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ59">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.49</v>
@@ -13455,7 +13461,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13661,7 +13667,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -13867,7 +13873,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q62">
         <v>2.05</v>
@@ -14151,10 +14157,10 @@
         <v>0.83</v>
       </c>
       <c r="AP63">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR63">
         <v>1.59</v>
@@ -14279,7 +14285,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>1.83</v>
@@ -14485,7 +14491,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>3.3</v>
@@ -14769,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14897,7 +14903,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>4.41</v>
@@ -15309,7 +15315,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>3.88</v>
@@ -15390,7 +15396,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ69">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15515,7 +15521,7 @@
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>2.55</v>
@@ -15927,7 +15933,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>3.24</v>
@@ -16008,7 +16014,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ72">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR72">
         <v>1.41</v>
@@ -16133,7 +16139,7 @@
         <v>116</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>2.48</v>
@@ -16339,7 +16345,7 @@
         <v>83</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>2.24</v>
@@ -16417,7 +16423,7 @@
         <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74">
         <v>1.22</v>
@@ -16545,7 +16551,7 @@
         <v>83</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>2.95</v>
@@ -16829,7 +16835,7 @@
         <v>1.86</v>
       </c>
       <c r="AP76">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ76">
         <v>1.22</v>
@@ -16957,7 +16963,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>4.17</v>
@@ -17163,7 +17169,7 @@
         <v>83</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q78">
         <v>4.92</v>
@@ -17369,7 +17375,7 @@
         <v>83</v>
       </c>
       <c r="P79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17656,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.24</v>
@@ -17781,7 +17787,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>3.64</v>
@@ -18605,7 +18611,7 @@
         <v>83</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q85">
         <v>4.6</v>
@@ -18811,7 +18817,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19017,7 +19023,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19095,10 +19101,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ87">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.49</v>
@@ -19429,7 +19435,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19507,10 +19513,10 @@
         <v>0.88</v>
       </c>
       <c r="AP89">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ89">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR89">
         <v>2.12</v>
@@ -19635,7 +19641,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19841,7 +19847,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -20047,7 +20053,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20125,7 +20131,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ92">
         <v>1.94</v>
@@ -20459,7 +20465,7 @@
         <v>140</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20540,7 +20546,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ94">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
         <v>1.55</v>
@@ -20665,7 +20671,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>2.96</v>
@@ -21077,7 +21083,7 @@
         <v>142</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>1.65</v>
@@ -21155,7 +21161,7 @@
         <v>0.6</v>
       </c>
       <c r="AP97">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ97">
         <v>1.06</v>
@@ -21283,7 +21289,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>2.94</v>
@@ -21364,7 +21370,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ98">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR98">
         <v>1.53</v>
@@ -21567,7 +21573,7 @@
         <v>1.22</v>
       </c>
       <c r="AP99">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ99">
         <v>1.06</v>
@@ -22107,7 +22113,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>3.75</v>
@@ -22519,7 +22525,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q104">
         <v>5.5</v>
@@ -22931,7 +22937,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23012,7 +23018,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR106">
         <v>1.22</v>
@@ -23137,7 +23143,7 @@
         <v>136</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>2.56</v>
@@ -23421,7 +23427,7 @@
         <v>1.18</v>
       </c>
       <c r="AP108">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ108">
         <v>1.22</v>
@@ -23755,7 +23761,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>2.2</v>
@@ -23836,7 +23842,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ110">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -23961,7 +23967,7 @@
         <v>83</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>4.5</v>
@@ -24248,7 +24254,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ112">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR112">
         <v>1.57</v>
@@ -24373,7 +24379,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -25197,7 +25203,7 @@
         <v>143</v>
       </c>
       <c r="P117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25275,7 +25281,7 @@
         <v>2.25</v>
       </c>
       <c r="AP117">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ117">
         <v>2.11</v>
@@ -25609,7 +25615,7 @@
         <v>155</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>2.2</v>
@@ -25687,7 +25693,7 @@
         <v>0.58</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ119">
         <v>1.06</v>
@@ -25896,7 +25902,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ120">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR120">
         <v>1.62</v>
@@ -26308,7 +26314,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ122">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.82</v>
@@ -26639,7 +26645,7 @@
         <v>155</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q124">
         <v>6.09</v>
@@ -26845,7 +26851,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -26926,7 +26932,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR125">
         <v>1.12</v>
@@ -27463,7 +27469,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>4.5</v>
@@ -27541,7 +27547,7 @@
         <v>2.15</v>
       </c>
       <c r="AP128">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ128">
         <v>2.11</v>
@@ -28287,7 +28293,7 @@
         <v>162</v>
       </c>
       <c r="P132" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q132">
         <v>1.73</v>
@@ -28777,7 +28783,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ134">
         <v>1.22</v>
@@ -28986,7 +28992,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ135">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR135">
         <v>1.52</v>
@@ -29317,7 +29323,7 @@
         <v>167</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -29523,7 +29529,7 @@
         <v>168</v>
       </c>
       <c r="P138" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q138">
         <v>2.05</v>
@@ -29601,7 +29607,7 @@
         <v>1.58</v>
       </c>
       <c r="AP138">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ138">
         <v>1.22</v>
@@ -29729,7 +29735,7 @@
         <v>169</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>1.58</v>
@@ -29935,7 +29941,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -30016,7 +30022,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ140">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
         <v>1.31</v>
@@ -30141,7 +30147,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -30347,7 +30353,7 @@
         <v>136</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30553,7 +30559,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q143">
         <v>6.08</v>
@@ -30759,7 +30765,7 @@
         <v>116</v>
       </c>
       <c r="P144" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31252,7 +31258,7 @@
         <v>2.28</v>
       </c>
       <c r="AQ146">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR146">
         <v>1.98</v>
@@ -31377,7 +31383,7 @@
         <v>83</v>
       </c>
       <c r="P147" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31583,7 +31589,7 @@
         <v>174</v>
       </c>
       <c r="P148" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>1.8</v>
@@ -31661,7 +31667,7 @@
         <v>1.07</v>
       </c>
       <c r="AP148">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ148">
         <v>1.06</v>
@@ -31789,7 +31795,7 @@
         <v>175</v>
       </c>
       <c r="P149" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q149">
         <v>2.11</v>
@@ -31867,7 +31873,7 @@
         <v>1.07</v>
       </c>
       <c r="AP149">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -31995,7 +32001,7 @@
         <v>176</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -32201,7 +32207,7 @@
         <v>126</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -32282,7 +32288,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ151">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR151">
         <v>1.49</v>
@@ -32407,7 +32413,7 @@
         <v>177</v>
       </c>
       <c r="P152" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q152">
         <v>3.49</v>
@@ -32613,7 +32619,7 @@
         <v>178</v>
       </c>
       <c r="P153" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q153">
         <v>5</v>
@@ -32819,7 +32825,7 @@
         <v>112</v>
       </c>
       <c r="P154" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>4.03</v>
@@ -33025,7 +33031,7 @@
         <v>106</v>
       </c>
       <c r="P155" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -33103,10 +33109,10 @@
         <v>1.27</v>
       </c>
       <c r="AP155">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ155">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR155">
         <v>2.12</v>
@@ -33437,7 +33443,7 @@
         <v>179</v>
       </c>
       <c r="P157" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>2.88</v>
@@ -33721,7 +33727,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -34055,7 +34061,7 @@
         <v>182</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q160">
         <v>1.67</v>
@@ -34339,10 +34345,10 @@
         <v>1.13</v>
       </c>
       <c r="AP161">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ161">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR161">
         <v>1.57</v>
@@ -34754,7 +34760,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ163">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR163">
         <v>1.49</v>
@@ -35085,7 +35091,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -35497,7 +35503,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35578,7 +35584,7 @@
         <v>0.72</v>
       </c>
       <c r="AQ167">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AR167">
         <v>1.3</v>
@@ -35781,7 +35787,7 @@
         <v>1.19</v>
       </c>
       <c r="AP168">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ168">
         <v>1.22</v>
@@ -35909,7 +35915,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q169">
         <v>2.63</v>
@@ -36399,7 +36405,7 @@
         <v>1.25</v>
       </c>
       <c r="AP171">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ171">
         <v>1.22</v>
@@ -36527,7 +36533,7 @@
         <v>158</v>
       </c>
       <c r="P172" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q172">
         <v>2.75</v>
@@ -36733,7 +36739,7 @@
         <v>191</v>
       </c>
       <c r="P173" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q173">
         <v>3.1</v>
@@ -37351,7 +37357,7 @@
         <v>109</v>
       </c>
       <c r="P176" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37557,7 +37563,7 @@
         <v>194</v>
       </c>
       <c r="P177" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37653,19 +37659,19 @@
         <v>3</v>
       </c>
       <c r="AV177">
+        <v>10</v>
+      </c>
+      <c r="AW177">
+        <v>2</v>
+      </c>
+      <c r="AX177">
         <v>6</v>
-      </c>
-      <c r="AW177">
-        <v>2</v>
-      </c>
-      <c r="AX177">
-        <v>5</v>
       </c>
       <c r="AY177">
         <v>5</v>
       </c>
       <c r="AZ177">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA177">
         <v>3</v>
@@ -37763,7 +37769,7 @@
         <v>195</v>
       </c>
       <c r="P178" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q178">
         <v>2.75</v>
@@ -37856,22 +37862,22 @@
         <v>2.75</v>
       </c>
       <c r="AU178">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV178">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW178">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX178">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY178">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ178">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA178">
         <v>8</v>
@@ -38065,19 +38071,19 @@
         <v>5</v>
       </c>
       <c r="AV179">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW179">
         <v>7</v>
       </c>
       <c r="AX179">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AY179">
         <v>12</v>
       </c>
       <c r="AZ179">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA179">
         <v>4</v>
@@ -38126,6 +38132,418 @@
       </c>
       <c r="BP179">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>6575233</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45431.52083333334</v>
+      </c>
+      <c r="F180">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s">
+        <v>75</v>
+      </c>
+      <c r="H180" t="s">
+        <v>71</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>83</v>
+      </c>
+      <c r="P180" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q180">
+        <v>2.1</v>
+      </c>
+      <c r="R180">
+        <v>2.25</v>
+      </c>
+      <c r="S180">
+        <v>5.5</v>
+      </c>
+      <c r="T180">
+        <v>1.33</v>
+      </c>
+      <c r="U180">
+        <v>3</v>
+      </c>
+      <c r="V180">
+        <v>2.6</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>5.75</v>
+      </c>
+      <c r="Y180">
+        <v>1.1</v>
+      </c>
+      <c r="Z180">
+        <v>1.53</v>
+      </c>
+      <c r="AA180">
+        <v>3.9</v>
+      </c>
+      <c r="AB180">
+        <v>5</v>
+      </c>
+      <c r="AC180">
+        <v>1.02</v>
+      </c>
+      <c r="AD180">
+        <v>10</v>
+      </c>
+      <c r="AE180">
+        <v>1.25</v>
+      </c>
+      <c r="AF180">
+        <v>3.6</v>
+      </c>
+      <c r="AG180">
+        <v>1.73</v>
+      </c>
+      <c r="AH180">
+        <v>1.91</v>
+      </c>
+      <c r="AI180">
+        <v>1.8</v>
+      </c>
+      <c r="AJ180">
+        <v>1.91</v>
+      </c>
+      <c r="AK180">
+        <v>1.17</v>
+      </c>
+      <c r="AL180">
+        <v>1.22</v>
+      </c>
+      <c r="AM180">
+        <v>2.38</v>
+      </c>
+      <c r="AN180">
+        <v>1.71</v>
+      </c>
+      <c r="AO180">
+        <v>1.12</v>
+      </c>
+      <c r="AP180">
+        <v>1.61</v>
+      </c>
+      <c r="AQ180">
+        <v>1.22</v>
+      </c>
+      <c r="AR180">
+        <v>2.17</v>
+      </c>
+      <c r="AS180">
+        <v>1.53</v>
+      </c>
+      <c r="AT180">
+        <v>3.7</v>
+      </c>
+      <c r="AU180">
+        <v>4</v>
+      </c>
+      <c r="AV180">
+        <v>7</v>
+      </c>
+      <c r="AW180">
+        <v>7</v>
+      </c>
+      <c r="AX180">
+        <v>11</v>
+      </c>
+      <c r="AY180">
+        <v>11</v>
+      </c>
+      <c r="AZ180">
+        <v>18</v>
+      </c>
+      <c r="BA180">
+        <v>7</v>
+      </c>
+      <c r="BB180">
+        <v>10</v>
+      </c>
+      <c r="BC180">
+        <v>17</v>
+      </c>
+      <c r="BD180">
+        <v>1.43</v>
+      </c>
+      <c r="BE180">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF180">
+        <v>3.22</v>
+      </c>
+      <c r="BG180">
+        <v>1.29</v>
+      </c>
+      <c r="BH180">
+        <v>3.4</v>
+      </c>
+      <c r="BI180">
+        <v>1.41</v>
+      </c>
+      <c r="BJ180">
+        <v>2.6</v>
+      </c>
+      <c r="BK180">
+        <v>1.71</v>
+      </c>
+      <c r="BL180">
+        <v>1.97</v>
+      </c>
+      <c r="BM180">
+        <v>2.17</v>
+      </c>
+      <c r="BN180">
+        <v>1.58</v>
+      </c>
+      <c r="BO180">
+        <v>2.8</v>
+      </c>
+      <c r="BP180">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>6575237</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45431.52083333334</v>
+      </c>
+      <c r="F181">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>72</v>
+      </c>
+      <c r="H181" t="s">
+        <v>77</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>197</v>
+      </c>
+      <c r="P181" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q181">
+        <v>4.5</v>
+      </c>
+      <c r="R181">
+        <v>2.25</v>
+      </c>
+      <c r="S181">
+        <v>2.3</v>
+      </c>
+      <c r="T181">
+        <v>1.33</v>
+      </c>
+      <c r="U181">
+        <v>3</v>
+      </c>
+      <c r="V181">
+        <v>2.5</v>
+      </c>
+      <c r="W181">
+        <v>1.48</v>
+      </c>
+      <c r="X181">
+        <v>5.75</v>
+      </c>
+      <c r="Y181">
+        <v>1.1</v>
+      </c>
+      <c r="Z181">
+        <v>4.2</v>
+      </c>
+      <c r="AA181">
+        <v>3.7</v>
+      </c>
+      <c r="AB181">
+        <v>1.65</v>
+      </c>
+      <c r="AC181">
+        <v>1.02</v>
+      </c>
+      <c r="AD181">
+        <v>10</v>
+      </c>
+      <c r="AE181">
+        <v>1.22</v>
+      </c>
+      <c r="AF181">
+        <v>3.8</v>
+      </c>
+      <c r="AG181">
+        <v>1.7</v>
+      </c>
+      <c r="AH181">
+        <v>1.95</v>
+      </c>
+      <c r="AI181">
+        <v>1.73</v>
+      </c>
+      <c r="AJ181">
+        <v>2</v>
+      </c>
+      <c r="AK181">
+        <v>2.05</v>
+      </c>
+      <c r="AL181">
+        <v>1.29</v>
+      </c>
+      <c r="AM181">
+        <v>1.2</v>
+      </c>
+      <c r="AN181">
+        <v>1.47</v>
+      </c>
+      <c r="AO181">
+        <v>1.35</v>
+      </c>
+      <c r="AP181">
+        <v>1.44</v>
+      </c>
+      <c r="AQ181">
+        <v>1.33</v>
+      </c>
+      <c r="AR181">
+        <v>1.57</v>
+      </c>
+      <c r="AS181">
+        <v>1.64</v>
+      </c>
+      <c r="AT181">
+        <v>3.21</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>8</v>
+      </c>
+      <c r="AW181">
+        <v>11</v>
+      </c>
+      <c r="AX181">
+        <v>4</v>
+      </c>
+      <c r="AY181">
+        <v>16</v>
+      </c>
+      <c r="AZ181">
+        <v>12</v>
+      </c>
+      <c r="BA181">
+        <v>3</v>
+      </c>
+      <c r="BB181">
+        <v>3</v>
+      </c>
+      <c r="BC181">
+        <v>6</v>
+      </c>
+      <c r="BD181">
+        <v>2.67</v>
+      </c>
+      <c r="BE181">
+        <v>8.5</v>
+      </c>
+      <c r="BF181">
+        <v>1.6</v>
+      </c>
+      <c r="BG181">
+        <v>1.36</v>
+      </c>
+      <c r="BH181">
+        <v>2.79</v>
+      </c>
+      <c r="BI181">
+        <v>1.72</v>
+      </c>
+      <c r="BJ181">
+        <v>2.06</v>
+      </c>
+      <c r="BK181">
+        <v>2.16</v>
+      </c>
+      <c r="BL181">
+        <v>1.66</v>
+      </c>
+      <c r="BM181">
+        <v>2.62</v>
+      </c>
+      <c r="BN181">
+        <v>1.42</v>
+      </c>
+      <c r="BO181">
+        <v>3.6</v>
+      </c>
+      <c r="BP181">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovenia PrvaLiga_20232024.xlsx
@@ -1618,10 +1618,10 @@
         <v>2</v>
       </c>
       <c r="AY2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2">
         <v>2</v>
@@ -1824,10 +1824,10 @@
         <v>7</v>
       </c>
       <c r="AY3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA3">
         <v>4</v>
@@ -2030,10 +2030,10 @@
         <v>5</v>
       </c>
       <c r="AY4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA4">
         <v>3</v>
@@ -2236,10 +2236,10 @@
         <v>3</v>
       </c>
       <c r="AY5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA5">
         <v>10</v>
@@ -2442,10 +2442,10 @@
         <v>5</v>
       </c>
       <c r="AY6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA6">
         <v>1</v>
@@ -2648,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="AY7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ7">
         <v>8</v>
@@ -2854,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="AY8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA8">
         <v>12</v>
@@ -3060,10 +3060,10 @@
         <v>4</v>
       </c>
       <c r="AY9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA9">
         <v>6</v>
@@ -3266,10 +3266,10 @@
         <v>4</v>
       </c>
       <c r="AY10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA10">
         <v>6</v>
@@ -3475,7 +3475,7 @@
         <v>18</v>
       </c>
       <c r="AZ11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA11">
         <v>9</v>
@@ -3678,10 +3678,10 @@
         <v>3</v>
       </c>
       <c r="AY12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA12">
         <v>7</v>
@@ -3884,10 +3884,10 @@
         <v>5</v>
       </c>
       <c r="AY13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA13">
         <v>6</v>
@@ -4090,10 +4090,10 @@
         <v>5</v>
       </c>
       <c r="AY14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA14">
         <v>5</v>
@@ -4296,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="AY15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ15">
         <v>3</v>
@@ -4502,10 +4502,10 @@
         <v>3</v>
       </c>
       <c r="AY16">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA16">
         <v>5</v>
@@ -4708,7 +4708,7 @@
         <v>2</v>
       </c>
       <c r="AY17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ17">
         <v>11</v>
@@ -4914,10 +4914,10 @@
         <v>4</v>
       </c>
       <c r="AY18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA18">
         <v>6</v>
@@ -5123,7 +5123,7 @@
         <v>9</v>
       </c>
       <c r="AZ19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA19">
         <v>2</v>
@@ -5326,10 +5326,10 @@
         <v>6</v>
       </c>
       <c r="AY20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA20">
         <v>2</v>
@@ -5532,10 +5532,10 @@
         <v>6</v>
       </c>
       <c r="AY21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ21">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA21">
         <v>3</v>
@@ -5738,10 +5738,10 @@
         <v>4</v>
       </c>
       <c r="AY22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA22">
         <v>8</v>
@@ -6150,10 +6150,10 @@
         <v>11</v>
       </c>
       <c r="AY24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA24">
         <v>9</v>
@@ -6356,10 +6356,10 @@
         <v>2</v>
       </c>
       <c r="AY25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA25">
         <v>10</v>
@@ -6562,7 +6562,7 @@
         <v>3</v>
       </c>
       <c r="AY26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ26">
         <v>8</v>
@@ -6768,10 +6768,10 @@
         <v>4</v>
       </c>
       <c r="AY27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA27">
         <v>4</v>
@@ -6974,10 +6974,10 @@
         <v>5</v>
       </c>
       <c r="AY28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ28">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA28">
         <v>6</v>
@@ -7180,10 +7180,10 @@
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA29">
         <v>7</v>
@@ -7386,10 +7386,10 @@
         <v>3</v>
       </c>
       <c r="AY30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA30">
         <v>2</v>
@@ -7592,10 +7592,10 @@
         <v>4</v>
       </c>
       <c r="AY31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA31">
         <v>3</v>
@@ -7798,10 +7798,10 @@
         <v>4</v>
       </c>
       <c r="AY32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA32">
         <v>6</v>
@@ -8004,10 +8004,10 @@
         <v>6</v>
       </c>
       <c r="AY33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA33">
         <v>5</v>
@@ -8210,7 +8210,7 @@
         <v>3</v>
       </c>
       <c r="AY34">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ34">
         <v>7</v>
@@ -8419,7 +8419,7 @@
         <v>12</v>
       </c>
       <c r="AZ35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA35">
         <v>2</v>
@@ -8625,7 +8625,7 @@
         <v>11</v>
       </c>
       <c r="AZ36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -8831,7 +8831,7 @@
         <v>17</v>
       </c>
       <c r="AZ37">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA37">
         <v>7</v>
@@ -9034,10 +9034,10 @@
         <v>8</v>
       </c>
       <c r="AY38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ38">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA38">
         <v>4</v>
@@ -9240,10 +9240,10 @@
         <v>1</v>
       </c>
       <c r="AY39">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA39">
         <v>8</v>
@@ -9446,10 +9446,10 @@
         <v>3</v>
       </c>
       <c r="AY40">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ40">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9652,10 +9652,10 @@
         <v>5</v>
       </c>
       <c r="AY41">
+        <v>16</v>
+      </c>
+      <c r="AZ41">
         <v>12</v>
-      </c>
-      <c r="AZ41">
-        <v>11</v>
       </c>
       <c r="BA41">
         <v>4</v>
@@ -9858,10 +9858,10 @@
         <v>2</v>
       </c>
       <c r="AY42">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA42">
         <v>0</v>
@@ -10064,10 +10064,10 @@
         <v>3</v>
       </c>
       <c r="AY43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA43">
         <v>4</v>
@@ -10270,10 +10270,10 @@
         <v>5</v>
       </c>
       <c r="AY44">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA44">
         <v>13</v>
@@ -10476,7 +10476,7 @@
         <v>3</v>
       </c>
       <c r="AY45">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ45">
         <v>10</v>
@@ -10682,10 +10682,10 @@
         <v>3</v>
       </c>
       <c r="AY46">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA46">
         <v>6</v>
@@ -10888,10 +10888,10 @@
         <v>2</v>
       </c>
       <c r="AY47">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ47">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA47">
         <v>9</v>
@@ -11094,10 +11094,10 @@
         <v>6</v>
       </c>
       <c r="AY48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA48">
         <v>4</v>
@@ -11300,10 +11300,10 @@
         <v>3</v>
       </c>
       <c r="AY49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ49">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA49">
         <v>3</v>
@@ -11506,7 +11506,7 @@
         <v>5</v>
       </c>
       <c r="AY50">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ50">
         <v>13</v>
@@ -11712,10 +11712,10 @@
         <v>6</v>
       </c>
       <c r="AY51">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ51">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA51">
         <v>6</v>
@@ -11921,7 +11921,7 @@
         <v>12</v>
       </c>
       <c r="AZ52">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA52">
         <v>6</v>
@@ -12124,10 +12124,10 @@
         <v>4</v>
       </c>
       <c r="AY53">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ53">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -12330,7 +12330,7 @@
         <v>5</v>
       </c>
       <c r="AY54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ54">
         <v>8</v>
@@ -12536,10 +12536,10 @@
         <v>3</v>
       </c>
       <c r="AY55">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ55">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA55">
         <v>7</v>
@@ -12742,10 +12742,10 @@
         <v>8</v>
       </c>
       <c r="AY56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA56">
         <v>4</v>
@@ -12948,10 +12948,10 @@
         <v>1</v>
       </c>
       <c r="AY57">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ57">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA57">
         <v>10</v>
@@ -13154,10 +13154,10 @@
         <v>8</v>
       </c>
       <c r="AY58">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AZ58">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA58">
         <v>6</v>
@@ -13360,10 +13360,10 @@
         <v>2</v>
       </c>
       <c r="AY59">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ59">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA59">
         <v>5</v>
@@ -13566,10 +13566,10 @@
         <v>10</v>
       </c>
       <c r="AY60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ60">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA60">
         <v>7</v>
@@ -13772,10 +13772,10 @@
         <v>7</v>
       </c>
       <c r="AY61">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ61">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA61">
         <v>4</v>
@@ -13978,7 +13978,7 @@
         <v>2</v>
       </c>
       <c r="AY62">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ62">
         <v>5</v>
@@ -14184,10 +14184,10 @@
         <v>5</v>
       </c>
       <c r="AY63">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA63">
         <v>4</v>
@@ -14390,10 +14390,10 @@
         <v>1</v>
       </c>
       <c r="AY64">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA64">
         <v>11</v>
@@ -14596,10 +14596,10 @@
         <v>1</v>
       </c>
       <c r="AY65">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA65">
         <v>2</v>
@@ -14802,10 +14802,10 @@
         <v>2</v>
       </c>
       <c r="AY66">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA66">
         <v>8</v>
@@ -15008,10 +15008,10 @@
         <v>2</v>
       </c>
       <c r="AY67">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ67">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA67">
         <v>5</v>
@@ -15214,10 +15214,10 @@
         <v>6</v>
       </c>
       <c r="AY68">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ68">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA68">
         <v>7</v>
@@ -15420,10 +15420,10 @@
         <v>6</v>
       </c>
       <c r="AY69">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA69">
         <v>5</v>
@@ -15626,10 +15626,10 @@
         <v>7</v>
       </c>
       <c r="AY70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ70">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA70">
         <v>5</v>
@@ -15832,10 +15832,10 @@
         <v>3</v>
       </c>
       <c r="AY71">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ71">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA71">
         <v>8</v>
@@ -16038,10 +16038,10 @@
         <v>4</v>
       </c>
       <c r="AY72">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ72">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA72">
         <v>2</v>
@@ -16244,7 +16244,7 @@
         <v>1</v>
       </c>
       <c r="AY73">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ73">
         <v>6</v>
@@ -16450,10 +16450,10 @@
         <v>3</v>
       </c>
       <c r="AY74">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ74">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA74">
         <v>6</v>
@@ -16656,10 +16656,10 @@
         <v>6</v>
       </c>
       <c r="AY75">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ75">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA75">
         <v>5</v>
@@ -16862,10 +16862,10 @@
         <v>5</v>
       </c>
       <c r="AY76">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ76">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA76">
         <v>9</v>
@@ -17068,10 +17068,10 @@
         <v>3</v>
       </c>
       <c r="AY77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ77">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA77">
         <v>2</v>
@@ -17274,10 +17274,10 @@
         <v>4</v>
       </c>
       <c r="AY78">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ78">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA78">
         <v>3</v>
@@ -17480,10 +17480,10 @@
         <v>5</v>
       </c>
       <c r="AY79">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ79">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA79">
         <v>8</v>
@@ -17686,10 +17686,10 @@
         <v>10</v>
       </c>
       <c r="AY80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ80">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA80">
         <v>2</v>
@@ -17892,10 +17892,10 @@
         <v>9</v>
       </c>
       <c r="AY81">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ81">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA81">
         <v>4</v>
@@ -18098,10 +18098,10 @@
         <v>6</v>
       </c>
       <c r="AY82">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ82">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA82">
         <v>6</v>
@@ -18304,10 +18304,10 @@
         <v>5</v>
       </c>
       <c r="AY83">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ83">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA83">
         <v>9</v>
@@ -18510,10 +18510,10 @@
         <v>9</v>
       </c>
       <c r="AY84">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ84">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BA84">
         <v>2</v>
@@ -18716,10 +18716,10 @@
         <v>8</v>
       </c>
       <c r="AY85">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ85">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BA85">
         <v>2</v>
@@ -18922,10 +18922,10 @@
         <v>5</v>
       </c>
       <c r="AY86">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ86">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA86">
         <v>7</v>
@@ -19128,10 +19128,10 @@
         <v>3</v>
       </c>
       <c r="AY87">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ87">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA87">
         <v>7</v>
@@ -19334,7 +19334,7 @@
         <v>2</v>
       </c>
       <c r="AY88">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ88">
         <v>6</v>
@@ -19540,10 +19540,10 @@
         <v>4</v>
       </c>
       <c r="AY89">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ89">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA89">
         <v>8</v>
@@ -19746,10 +19746,10 @@
         <v>7</v>
       </c>
       <c r="AY90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ90">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA90">
         <v>5</v>
@@ -19952,10 +19952,10 @@
         <v>2</v>
       </c>
       <c r="AY91">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA91">
         <v>5</v>
@@ -20158,10 +20158,10 @@
         <v>8</v>
       </c>
       <c r="AY92">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ92">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA92">
         <v>6</v>
@@ -20364,10 +20364,10 @@
         <v>3</v>
       </c>
       <c r="AY93">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ93">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA93">
         <v>6</v>
@@ -20570,10 +20570,10 @@
         <v>8</v>
       </c>
       <c r="AY94">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ94">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA94">
         <v>4</v>
@@ -20776,10 +20776,10 @@
         <v>5</v>
       </c>
       <c r="AY95">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ95">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA95">
         <v>7</v>
@@ -20982,10 +20982,10 @@
         <v>2</v>
       </c>
       <c r="AY96">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AZ96">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA96">
         <v>12</v>
@@ -21188,10 +21188,10 @@
         <v>7</v>
       </c>
       <c r="AY97">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ97">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA97">
         <v>9</v>
@@ -21394,10 +21394,10 @@
         <v>2</v>
       </c>
       <c r="AY98">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ98">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA98">
         <v>3</v>
@@ -21600,10 +21600,10 @@
         <v>2</v>
       </c>
       <c r="AY99">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ99">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA99">
         <v>3</v>
@@ -21806,10 +21806,10 @@
         <v>2</v>
       </c>
       <c r="AY100">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AZ100">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA100">
         <v>8</v>
@@ -22012,7 +22012,7 @@
         <v>3</v>
       </c>
       <c r="AY101">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ101">
         <v>3</v>
@@ -22218,10 +22218,10 @@
         <v>7</v>
       </c>
       <c r="AY102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ102">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA102">
         <v>0</v>
@@ -22424,10 +22424,10 @@
         <v>3</v>
       </c>
       <c r="AY103">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ103">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA103">
         <v>5</v>
@@ -22630,10 +22630,10 @@
         <v>5</v>
       </c>
       <c r="AY104">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ104">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA104">
         <v>4</v>
@@ -22836,10 +22836,10 @@
         <v>6</v>
       </c>
       <c r="AY105">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ105">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA105">
         <v>4</v>
@@ -23042,10 +23042,10 @@
         <v>2</v>
       </c>
       <c r="AY106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA106">
         <v>4</v>
@@ -23248,10 +23248,10 @@
         <v>4</v>
       </c>
       <c r="AY107">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ107">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA107">
         <v>3</v>
@@ -23454,10 +23454,10 @@
         <v>5</v>
       </c>
       <c r="AY108">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA108">
         <v>9</v>
@@ -23660,10 +23660,10 @@
         <v>4</v>
       </c>
       <c r="AY109">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ109">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA109">
         <v>6</v>
@@ -23866,10 +23866,10 @@
         <v>3</v>
       </c>
       <c r="AY110">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ110">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA110">
         <v>2</v>
@@ -24072,10 +24072,10 @@
         <v>5</v>
       </c>
       <c r="AY111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ111">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA111">
         <v>3</v>
@@ -24278,10 +24278,10 @@
         <v>6</v>
       </c>
       <c r="AY112">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ112">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA112">
         <v>7</v>
@@ -24487,7 +24487,7 @@
         <v>9</v>
       </c>
       <c r="AZ113">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA113">
         <v>1</v>
@@ -24690,10 +24690,10 @@
         <v>9</v>
       </c>
       <c r="AY114">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ114">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA114">
         <v>6</v>
@@ -24896,10 +24896,10 @@
         <v>3</v>
       </c>
       <c r="AY115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ115">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA115">
         <v>3</v>
@@ -25102,10 +25102,10 @@
         <v>5</v>
       </c>
       <c r="AY116">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ116">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA116">
         <v>5</v>
@@ -25308,10 +25308,10 @@
         <v>1</v>
       </c>
       <c r="AY117">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ117">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA117">
         <v>5</v>
@@ -25514,10 +25514,10 @@
         <v>6</v>
       </c>
       <c r="AY118">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ118">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA118">
         <v>5</v>
@@ -25720,10 +25720,10 @@
         <v>4</v>
       </c>
       <c r="AY119">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA119">
         <v>2</v>
@@ -25926,10 +25926,10 @@
         <v>5</v>
       </c>
       <c r="AY120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ120">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA120">
         <v>2</v>
@@ -26132,10 +26132,10 @@
         <v>2</v>
       </c>
       <c r="AY121">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ121">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA121">
         <v>10</v>
@@ -26338,10 +26338,10 @@
         <v>2</v>
       </c>
       <c r="AY122">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ122">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA122">
         <v>5</v>
@@ -26544,10 +26544,10 @@
         <v>3</v>
       </c>
       <c r="AY123">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ123">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA123">
         <v>4</v>
@@ -26750,10 +26750,10 @@
         <v>5</v>
       </c>
       <c r="AY124">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ124">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA124">
         <v>2</v>
@@ -26956,10 +26956,10 @@
         <v>13</v>
       </c>
       <c r="AY125">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ125">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA125">
         <v>6</v>
@@ -27162,10 +27162,10 @@
         <v>13</v>
       </c>
       <c r="AY126">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ126">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BA126">
         <v>0</v>
@@ -27368,10 +27368,10 @@
         <v>2</v>
       </c>
       <c r="AY127">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ127">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA127">
         <v>10</v>
@@ -27574,10 +27574,10 @@
         <v>5</v>
       </c>
       <c r="AY128">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ128">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA128">
         <v>4</v>
@@ -27780,10 +27780,10 @@
         <v>7</v>
       </c>
       <c r="AY129">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ129">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA129">
         <v>4</v>
@@ -27986,10 +27986,10 @@
         <v>4</v>
       </c>
       <c r="AY130">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AZ130">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA130">
         <v>8</v>
@@ -28192,10 +28192,10 @@
         <v>5</v>
       </c>
       <c r="AY131">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ131">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA131">
         <v>9</v>
@@ -28398,10 +28398,10 @@
         <v>4</v>
       </c>
       <c r="AY132">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ132">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA132">
         <v>4</v>
@@ -28604,10 +28604,10 @@
         <v>8</v>
       </c>
       <c r="AY133">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ133">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA133">
         <v>11</v>
@@ -28810,10 +28810,10 @@
         <v>5</v>
       </c>
       <c r="AY134">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ134">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA134">
         <v>2</v>
@@ -29016,10 +29016,10 @@
         <v>6</v>
       </c>
       <c r="AY135">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ135">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA135">
         <v>3</v>
@@ -29222,10 +29222,10 @@
         <v>4</v>
       </c>
       <c r="AY136">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ136">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA136">
         <v>7</v>
@@ -29428,10 +29428,10 @@
         <v>4</v>
       </c>
       <c r="AY137">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ137">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA137">
         <v>10</v>
@@ -29634,10 +29634,10 @@
         <v>3</v>
       </c>
       <c r="AY138">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ138">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA138">
         <v>1</v>
@@ -29840,10 +29840,10 @@
         <v>2</v>
       </c>
       <c r="AY139">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AZ139">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA139">
         <v>15</v>
@@ -30046,10 +30046,10 @@
         <v>7</v>
       </c>
       <c r="AY140">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ140">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA140">
         <v>4</v>
@@ -30252,10 +30252,10 @@
         <v>7</v>
       </c>
       <c r="AY141">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ141">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA141">
         <v>5</v>
@@ -30458,10 +30458,10 @@
         <v>2</v>
       </c>
       <c r="AY142">
+        <v>11</v>
+      </c>
+      <c r="AZ142">
         <v>8</v>
-      </c>
-      <c r="AZ142">
-        <v>5</v>
       </c>
       <c r="BA142">
         <v>3</v>
@@ -30664,10 +30664,10 @@
         <v>13</v>
       </c>
       <c r="AY143">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ143">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="BA143">
         <v>5</v>
@@ -30870,10 +30870,10 @@
         <v>6</v>
       </c>
       <c r="AY144">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ144">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA144">
         <v>4</v>
@@ -31076,10 +31076,10 @@
         <v>6</v>
       </c>
       <c r="AY145">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ145">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA145">
         <v>3</v>
@@ -31282,10 +31282,10 @@
         <v>4</v>
       </c>
       <c r="AY146">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ146">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA146">
         <v>12</v>
@@ -31491,7 +31491,7 @@
         <v>11</v>
       </c>
       <c r="AZ147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA147">
         <v>4</v>
@@ -31694,10 +31694,10 @@
         <v>7</v>
       </c>
       <c r="AY148">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ148">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA148">
         <v>7</v>
@@ -31900,10 +31900,10 @@
         <v>6</v>
       </c>
       <c r="AY149">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ149">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA149">
         <v>7</v>
@@ -32106,10 +32106,10 @@
         <v>6</v>
       </c>
       <c r="AY150">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ150">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA150">
         <v>8</v>
@@ -32312,10 +32312,10 @@
         <v>6</v>
       </c>
       <c r="AY151">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ151">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA151">
         <v>6</v>
@@ -32518,10 +32518,10 @@
         <v>9</v>
       </c>
       <c r="AY152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ152">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA152">
         <v>6</v>
@@ -32724,10 +32724,10 @@
         <v>7</v>
       </c>
       <c r="AY153">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ153">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA153">
         <v>8</v>
@@ -32930,10 +32930,10 @@
         <v>7</v>
       </c>
       <c r="AY154">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ154">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA154">
         <v>8</v>
@@ -33136,10 +33136,10 @@
         <v>12</v>
       </c>
       <c r="AY155">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ155">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA155">
         <v>2</v>
@@ -33342,10 +33342,10 @@
         <v>9</v>
       </c>
       <c r="AY156">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ156">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA156">
         <v>4</v>
@@ -33548,10 +33548,10 @@
         <v>5</v>
       </c>
       <c r="AY157">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ157">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA157">
         <v>3</v>
@@ -33754,10 +33754,10 @@
         <v>6</v>
       </c>
       <c r="AY158">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AZ158">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA158">
         <v>5</v>
@@ -33960,10 +33960,10 @@
         <v>4</v>
       </c>
       <c r="AY159">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ159">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA159">
         <v>5</v>
@@ -34166,10 +34166,10 @@
         <v>3</v>
       </c>
       <c r="AY160">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ160">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA160">
         <v>11</v>
@@ -34372,10 +34372,10 @@
         <v>8</v>
       </c>
       <c r="AY161">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ161">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA161">
         <v>7</v>
@@ -34581,7 +34581,7 @@
         <v>10</v>
       </c>
       <c r="AZ162">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA162">
         <v>6</v>
@@ -34784,10 +34784,10 @@
         <v>10</v>
       </c>
       <c r="AY163">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ163">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BA163">
         <v>5</v>
@@ -34990,10 +34990,10 @@
         <v>9</v>
       </c>
       <c r="AY164">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ164">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA164">
         <v>3</v>
@@ -35196,10 +35196,10 @@
         <v>7</v>
       </c>
       <c r="AY165">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ165">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA165">
         <v>2</v>
@@ -35402,7 +35402,7 @@
         <v>2</v>
       </c>
       <c r="AY166">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ166">
         <v>8</v>
@@ -35608,10 +35608,10 @@
         <v>10</v>
       </c>
       <c r="AY167">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ167">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA167">
         <v>4</v>
@@ -35814,10 +35814,10 @@
         <v>4</v>
       </c>
       <c r="AY168">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ168">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA168">
         <v>5</v>
@@ -36020,10 +36020,10 @@
         <v>13</v>
       </c>
       <c r="AY169">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ169">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="BA169">
         <v>5</v>
@@ -36226,10 +36226,10 @@
         <v>8</v>
       </c>
       <c r="AY170">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ170">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA170">
         <v>1</v>
@@ -36432,10 +36432,10 @@
         <v>1</v>
       </c>
       <c r="AY171">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AZ171">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA171">
         <v>10</v>
@@ -36638,10 +36638,10 @@
         <v>4</v>
       </c>
       <c r="AY172">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AZ172">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA172">
         <v>8</v>
@@ -36844,10 +36844,10 @@
         <v>10</v>
       </c>
       <c r="AY173">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ173">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA173">
         <v>2</v>
@@ -37050,10 +37050,10 @@
         <v>14</v>
       </c>
       <c r="AY174">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ174">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA174">
         <v>5</v>
@@ -37256,10 +37256,10 @@
         <v>12</v>
       </c>
       <c r="AY175">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ175">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA175">
         <v>3</v>
@@ -37462,10 +37462,10 @@
         <v>4</v>
       </c>
       <c r="AY176">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AZ176">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA176">
         <v>10</v>
@@ -37671,7 +37671,7 @@
         <v>5</v>
       </c>
       <c r="AZ177">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA177">
         <v>3</v>
@@ -37877,7 +37877,7 @@
         <v>18</v>
       </c>
       <c r="AZ178">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA178">
         <v>8</v>
@@ -38080,10 +38080,10 @@
         <v>15</v>
       </c>
       <c r="AY179">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ179">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BA179">
         <v>4</v>
@@ -38286,10 +38286,10 @@
         <v>11</v>
       </c>
       <c r="AY180">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ180">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA180">
         <v>7</v>
@@ -38492,10 +38492,10 @@
         <v>4</v>
       </c>
       <c r="AY181">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ181">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA181">
         <v>3</v>
